--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="approvalDetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -216,10 +216,10 @@
     <t xml:space="preserve">work</t>
   </si>
   <si>
-    <t xml:space="preserve">AE456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIN456</t>
+    <t xml:space="preserve">AEN765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIN765</t>
   </si>
   <si>
     <t xml:space="preserve">Sq.metres</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">admin</t>
   </si>
   <si>
-    <t xml:space="preserve">ADN456</t>
+    <t xml:space="preserve">ADN765</t>
   </si>
   <si>
     <t xml:space="preserve">technicalSanctionNumber</t>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">technical</t>
   </si>
   <si>
-    <t xml:space="preserve">TSN456</t>
+    <t xml:space="preserve">TSN765</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant Engineer</t>
@@ -421,12 +421,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,16 +525,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,11 +643,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.3724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.85204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,18 +697,21 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,13 +810,15 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,17 +861,17 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -216,10 +216,10 @@
     <t xml:space="preserve">work</t>
   </si>
   <si>
-    <t xml:space="preserve">AEN765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIN765</t>
+    <t xml:space="preserve">AEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIN</t>
   </si>
   <si>
     <t xml:space="preserve">Sq.metres</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">admin</t>
   </si>
   <si>
-    <t xml:space="preserve">ADN765</t>
+    <t xml:space="preserve">ADN</t>
   </si>
   <si>
     <t xml:space="preserve">technicalSanctionNumber</t>
@@ -252,7 +252,7 @@
     <t xml:space="preserve">technical</t>
   </si>
   <si>
-    <t xml:space="preserve">TSN765</t>
+    <t xml:space="preserve">TSN</t>
   </si>
   <si>
     <t xml:space="preserve">Assistant Engineer</t>
@@ -421,12 +421,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,16 +525,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,11 +643,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.4336734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.3724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.71938775510204"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,21 +697,18 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -816,9 +813,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.7244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -867,11 +862,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -8,11 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="workHeaderDetails" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="adminSanctionHeaderDetails" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="approvalDetails" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="estimateHeaderDetails" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="financialDetails" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="approvalDetails" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="estimateHeaderDetails" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="financialDetails" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="workDetails" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="adminSanctionDetails" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="technicalSanctionDetails" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,71 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
   <si>
-    <t xml:space="preserve">Abstract/Detailed estimate created </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work order created </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name of the work </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abstract Estimate Number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimated Amount </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work identification number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UOM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Outcome </t>
-  </si>
-  <si>
-    <t xml:space="preserve">estimateAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laying of CC Road from Durga Ghat to Electrical pole no.3 at sankalbagh road in ward no.48 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEN/01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WIN/01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cubic Meters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative sanction number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin Sanction Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">adminDetail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADN/01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/06/2016</t>
-  </si>
-  <si>
     <t xml:space="preserve">approverDepartment</t>
   </si>
   <si>
@@ -237,18 +178,97 @@
   </si>
   <si>
     <t xml:space="preserve">4123001-CWIP-Concrete Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">worksOrderCreated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isBillCreated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nameOfWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abstractEstimateNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estimatedAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workIdentificationNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualEstimateAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grossAmountBilled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expectedOutcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WIN456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sq.metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">administrativeSanctionNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adminSanctionDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADN456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technicalSanctionNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technicalSanctionDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technicalSanctionAuthority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">technical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSN456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Engineer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -271,15 +291,23 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -325,12 +353,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -339,24 +367,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -377,20 +413,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -405,63 +445,69 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -471,44 +517,112 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="9.17857142857143"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -521,100 +635,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -624,106 +694,99 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.7959183673469"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>63</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>50000</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>49000</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +805,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
@@ -750,11 +813,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="33.4795918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,27 +821,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>42724</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>42724</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="approvalDetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
@@ -234,10 +234,16 @@
     <t xml:space="preserve">adminSanctionDate</t>
   </si>
   <si>
+    <t xml:space="preserve">administrativeSanctionAuthority</t>
+  </si>
+  <si>
     <t xml:space="preserve">admin</t>
   </si>
   <si>
     <t xml:space="preserve">ADN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commisioner</t>
   </si>
   <si>
     <t xml:space="preserve">technicalSanctionNumber</t>
@@ -387,11 +393,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,12 +427,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0357142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,16 +530,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.5"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,11 +648,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,13 +707,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.2244897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -805,15 +813,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,16 +837,22 @@
       <c r="C1" s="0" t="s">
         <v>68</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="7" t="n">
+        <v>71</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>42724</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -856,45 +873,44 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2704081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>71</v>
+      <c r="B1" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="7" t="n">
+        <v>77</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>42724</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="approvalDetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
@@ -123,7 +123,7 @@
     <t xml:space="preserve">modeOfEntrustment</t>
   </si>
   <si>
-    <t xml:space="preserve">header</t>
+    <t xml:space="preserve">SpilloverEstimate_1</t>
   </si>
   <si>
     <t xml:space="preserve">18/12/2016</t>
@@ -159,6 +159,75 @@
     <t xml:space="preserve">Nomination</t>
   </si>
   <si>
+    <t xml:space="preserve">SpilloverEstimate_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance of Water pipe lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoR Number 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Distribution lines maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambedkhar Nagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTIFIED SLUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINORITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operations and Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water Works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tendering (For below 1 Lakh)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpilloverEstimate_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waste Management Plant installation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoR Number 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid waste and sewage treatment plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurnool Municipal Corporation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballary Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON NOTIFIED SLUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOMEN/CHILDREN WELFARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid Waste Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewerage Treatment Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Procurement (For above 1 Lakh)</t>
+  </si>
+  <si>
     <t xml:space="preserve">fund</t>
   </si>
   <si>
@@ -168,7 +237,7 @@
     <t xml:space="preserve">budgetHead</t>
   </si>
   <si>
-    <t xml:space="preserve">financial</t>
+    <t xml:space="preserve">SpillOverFinancial_1</t>
   </si>
   <si>
     <t xml:space="preserve">Municipal Fund</t>
@@ -180,6 +249,15 @@
     <t xml:space="preserve">4123001-CWIP-Concrete Road</t>
   </si>
   <si>
+    <t xml:space="preserve">SpillOverFinancial_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2305002-By-lane Roads - Repairs and Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpillOverFinancial_3</t>
+  </si>
+  <si>
     <t xml:space="preserve">worksOrderCreated</t>
   </si>
   <si>
@@ -213,7 +291,7 @@
     <t xml:space="preserve">expectedOutcome</t>
   </si>
   <si>
-    <t xml:space="preserve">work</t>
+    <t xml:space="preserve">SpillWork_1</t>
   </si>
   <si>
     <t xml:space="preserve">AEN</t>
@@ -226,6 +304,33 @@
   </si>
   <si>
     <t xml:space="preserve">public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpillWork_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorkID/04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Running Metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpillWork_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LE/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorkID/05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each</t>
   </si>
   <si>
     <t xml:space="preserve">administrativeSanctionNumber</t>
@@ -364,7 +469,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,6 +491,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,11 +536,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="33.2091836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,24 +632,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.5"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,6 +734,1622 @@
       <c r="M2" s="1" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -640,19 +2367,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="1:4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.25"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,28 +2387,1590 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="IX3" s="0"/>
+      <c r="IY3" s="0"/>
+      <c r="IZ3" s="0"/>
+      <c r="JA3" s="0"/>
+      <c r="JB3" s="0"/>
+      <c r="JC3" s="0"/>
+      <c r="JD3" s="0"/>
+      <c r="JE3" s="0"/>
+      <c r="JF3" s="0"/>
+      <c r="JG3" s="0"/>
+      <c r="JH3" s="0"/>
+      <c r="JI3" s="0"/>
+      <c r="JJ3" s="0"/>
+      <c r="JK3" s="0"/>
+      <c r="JL3" s="0"/>
+      <c r="JM3" s="0"/>
+      <c r="JN3" s="0"/>
+      <c r="JO3" s="0"/>
+      <c r="JP3" s="0"/>
+      <c r="JQ3" s="0"/>
+      <c r="JR3" s="0"/>
+      <c r="JS3" s="0"/>
+      <c r="JT3" s="0"/>
+      <c r="JU3" s="0"/>
+      <c r="JV3" s="0"/>
+      <c r="JW3" s="0"/>
+      <c r="JX3" s="0"/>
+      <c r="JY3" s="0"/>
+      <c r="JZ3" s="0"/>
+      <c r="KA3" s="0"/>
+      <c r="KB3" s="0"/>
+      <c r="KC3" s="0"/>
+      <c r="KD3" s="0"/>
+      <c r="KE3" s="0"/>
+      <c r="KF3" s="0"/>
+      <c r="KG3" s="0"/>
+      <c r="KH3" s="0"/>
+      <c r="KI3" s="0"/>
+      <c r="KJ3" s="0"/>
+      <c r="KK3" s="0"/>
+      <c r="KL3" s="0"/>
+      <c r="KM3" s="0"/>
+      <c r="KN3" s="0"/>
+      <c r="KO3" s="0"/>
+      <c r="KP3" s="0"/>
+      <c r="KQ3" s="0"/>
+      <c r="KR3" s="0"/>
+      <c r="KS3" s="0"/>
+      <c r="KT3" s="0"/>
+      <c r="KU3" s="0"/>
+      <c r="KV3" s="0"/>
+      <c r="KW3" s="0"/>
+      <c r="KX3" s="0"/>
+      <c r="KY3" s="0"/>
+      <c r="KZ3" s="0"/>
+      <c r="LA3" s="0"/>
+      <c r="LB3" s="0"/>
+      <c r="LC3" s="0"/>
+      <c r="LD3" s="0"/>
+      <c r="LE3" s="0"/>
+      <c r="LF3" s="0"/>
+      <c r="LG3" s="0"/>
+      <c r="LH3" s="0"/>
+      <c r="LI3" s="0"/>
+      <c r="LJ3" s="0"/>
+      <c r="LK3" s="0"/>
+      <c r="LL3" s="0"/>
+      <c r="LM3" s="0"/>
+      <c r="LN3" s="0"/>
+      <c r="LO3" s="0"/>
+      <c r="LP3" s="0"/>
+      <c r="LQ3" s="0"/>
+      <c r="LR3" s="0"/>
+      <c r="LS3" s="0"/>
+      <c r="LT3" s="0"/>
+      <c r="LU3" s="0"/>
+      <c r="LV3" s="0"/>
+      <c r="LW3" s="0"/>
+      <c r="LX3" s="0"/>
+      <c r="LY3" s="0"/>
+      <c r="LZ3" s="0"/>
+      <c r="MA3" s="0"/>
+      <c r="MB3" s="0"/>
+      <c r="MC3" s="0"/>
+      <c r="MD3" s="0"/>
+      <c r="ME3" s="0"/>
+      <c r="MF3" s="0"/>
+      <c r="MG3" s="0"/>
+      <c r="MH3" s="0"/>
+      <c r="MI3" s="0"/>
+      <c r="MJ3" s="0"/>
+      <c r="MK3" s="0"/>
+      <c r="ML3" s="0"/>
+      <c r="MM3" s="0"/>
+      <c r="MN3" s="0"/>
+      <c r="MO3" s="0"/>
+      <c r="MP3" s="0"/>
+      <c r="MQ3" s="0"/>
+      <c r="MR3" s="0"/>
+      <c r="MS3" s="0"/>
+      <c r="MT3" s="0"/>
+      <c r="MU3" s="0"/>
+      <c r="MV3" s="0"/>
+      <c r="MW3" s="0"/>
+      <c r="MX3" s="0"/>
+      <c r="MY3" s="0"/>
+      <c r="MZ3" s="0"/>
+      <c r="NA3" s="0"/>
+      <c r="NB3" s="0"/>
+      <c r="NC3" s="0"/>
+      <c r="ND3" s="0"/>
+      <c r="NE3" s="0"/>
+      <c r="NF3" s="0"/>
+      <c r="NG3" s="0"/>
+      <c r="NH3" s="0"/>
+      <c r="NI3" s="0"/>
+      <c r="NJ3" s="0"/>
+      <c r="NK3" s="0"/>
+      <c r="NL3" s="0"/>
+      <c r="NM3" s="0"/>
+      <c r="NN3" s="0"/>
+      <c r="NO3" s="0"/>
+      <c r="NP3" s="0"/>
+      <c r="NQ3" s="0"/>
+      <c r="NR3" s="0"/>
+      <c r="NS3" s="0"/>
+      <c r="NT3" s="0"/>
+      <c r="NU3" s="0"/>
+      <c r="NV3" s="0"/>
+      <c r="NW3" s="0"/>
+      <c r="NX3" s="0"/>
+      <c r="NY3" s="0"/>
+      <c r="NZ3" s="0"/>
+      <c r="OA3" s="0"/>
+      <c r="OB3" s="0"/>
+      <c r="OC3" s="0"/>
+      <c r="OD3" s="0"/>
+      <c r="OE3" s="0"/>
+      <c r="OF3" s="0"/>
+      <c r="OG3" s="0"/>
+      <c r="OH3" s="0"/>
+      <c r="OI3" s="0"/>
+      <c r="OJ3" s="0"/>
+      <c r="OK3" s="0"/>
+      <c r="OL3" s="0"/>
+      <c r="OM3" s="0"/>
+      <c r="ON3" s="0"/>
+      <c r="OO3" s="0"/>
+      <c r="OP3" s="0"/>
+      <c r="OQ3" s="0"/>
+      <c r="OR3" s="0"/>
+      <c r="OS3" s="0"/>
+      <c r="OT3" s="0"/>
+      <c r="OU3" s="0"/>
+      <c r="OV3" s="0"/>
+      <c r="OW3" s="0"/>
+      <c r="OX3" s="0"/>
+      <c r="OY3" s="0"/>
+      <c r="OZ3" s="0"/>
+      <c r="PA3" s="0"/>
+      <c r="PB3" s="0"/>
+      <c r="PC3" s="0"/>
+      <c r="PD3" s="0"/>
+      <c r="PE3" s="0"/>
+      <c r="PF3" s="0"/>
+      <c r="PG3" s="0"/>
+      <c r="PH3" s="0"/>
+      <c r="PI3" s="0"/>
+      <c r="PJ3" s="0"/>
+      <c r="PK3" s="0"/>
+      <c r="PL3" s="0"/>
+      <c r="PM3" s="0"/>
+      <c r="PN3" s="0"/>
+      <c r="PO3" s="0"/>
+      <c r="PP3" s="0"/>
+      <c r="PQ3" s="0"/>
+      <c r="PR3" s="0"/>
+      <c r="PS3" s="0"/>
+      <c r="PT3" s="0"/>
+      <c r="PU3" s="0"/>
+      <c r="PV3" s="0"/>
+      <c r="PW3" s="0"/>
+      <c r="PX3" s="0"/>
+      <c r="PY3" s="0"/>
+      <c r="PZ3" s="0"/>
+      <c r="QA3" s="0"/>
+      <c r="QB3" s="0"/>
+      <c r="QC3" s="0"/>
+      <c r="QD3" s="0"/>
+      <c r="QE3" s="0"/>
+      <c r="QF3" s="0"/>
+      <c r="QG3" s="0"/>
+      <c r="QH3" s="0"/>
+      <c r="QI3" s="0"/>
+      <c r="QJ3" s="0"/>
+      <c r="QK3" s="0"/>
+      <c r="QL3" s="0"/>
+      <c r="QM3" s="0"/>
+      <c r="QN3" s="0"/>
+      <c r="QO3" s="0"/>
+      <c r="QP3" s="0"/>
+      <c r="QQ3" s="0"/>
+      <c r="QR3" s="0"/>
+      <c r="QS3" s="0"/>
+      <c r="QT3" s="0"/>
+      <c r="QU3" s="0"/>
+      <c r="QV3" s="0"/>
+      <c r="QW3" s="0"/>
+      <c r="QX3" s="0"/>
+      <c r="QY3" s="0"/>
+      <c r="QZ3" s="0"/>
+      <c r="RA3" s="0"/>
+      <c r="RB3" s="0"/>
+      <c r="RC3" s="0"/>
+      <c r="RD3" s="0"/>
+      <c r="RE3" s="0"/>
+      <c r="RF3" s="0"/>
+      <c r="RG3" s="0"/>
+      <c r="RH3" s="0"/>
+      <c r="RI3" s="0"/>
+      <c r="RJ3" s="0"/>
+      <c r="RK3" s="0"/>
+      <c r="RL3" s="0"/>
+      <c r="RM3" s="0"/>
+      <c r="RN3" s="0"/>
+      <c r="RO3" s="0"/>
+      <c r="RP3" s="0"/>
+      <c r="RQ3" s="0"/>
+      <c r="RR3" s="0"/>
+      <c r="RS3" s="0"/>
+      <c r="RT3" s="0"/>
+      <c r="RU3" s="0"/>
+      <c r="RV3" s="0"/>
+      <c r="RW3" s="0"/>
+      <c r="RX3" s="0"/>
+      <c r="RY3" s="0"/>
+      <c r="RZ3" s="0"/>
+      <c r="SA3" s="0"/>
+      <c r="SB3" s="0"/>
+      <c r="SC3" s="0"/>
+      <c r="SD3" s="0"/>
+      <c r="SE3" s="0"/>
+      <c r="SF3" s="0"/>
+      <c r="SG3" s="0"/>
+      <c r="SH3" s="0"/>
+      <c r="SI3" s="0"/>
+      <c r="SJ3" s="0"/>
+      <c r="SK3" s="0"/>
+      <c r="SL3" s="0"/>
+      <c r="SM3" s="0"/>
+      <c r="SN3" s="0"/>
+      <c r="SO3" s="0"/>
+      <c r="SP3" s="0"/>
+      <c r="SQ3" s="0"/>
+      <c r="SR3" s="0"/>
+      <c r="SS3" s="0"/>
+      <c r="ST3" s="0"/>
+      <c r="SU3" s="0"/>
+      <c r="SV3" s="0"/>
+      <c r="SW3" s="0"/>
+      <c r="SX3" s="0"/>
+      <c r="SY3" s="0"/>
+      <c r="SZ3" s="0"/>
+      <c r="TA3" s="0"/>
+      <c r="TB3" s="0"/>
+      <c r="TC3" s="0"/>
+      <c r="TD3" s="0"/>
+      <c r="TE3" s="0"/>
+      <c r="TF3" s="0"/>
+      <c r="TG3" s="0"/>
+      <c r="TH3" s="0"/>
+      <c r="TI3" s="0"/>
+      <c r="TJ3" s="0"/>
+      <c r="TK3" s="0"/>
+      <c r="TL3" s="0"/>
+      <c r="TM3" s="0"/>
+      <c r="TN3" s="0"/>
+      <c r="TO3" s="0"/>
+      <c r="TP3" s="0"/>
+      <c r="TQ3" s="0"/>
+      <c r="TR3" s="0"/>
+      <c r="TS3" s="0"/>
+      <c r="TT3" s="0"/>
+      <c r="TU3" s="0"/>
+      <c r="TV3" s="0"/>
+      <c r="TW3" s="0"/>
+      <c r="TX3" s="0"/>
+      <c r="TY3" s="0"/>
+      <c r="TZ3" s="0"/>
+      <c r="UA3" s="0"/>
+      <c r="UB3" s="0"/>
+      <c r="UC3" s="0"/>
+      <c r="UD3" s="0"/>
+      <c r="UE3" s="0"/>
+      <c r="UF3" s="0"/>
+      <c r="UG3" s="0"/>
+      <c r="UH3" s="0"/>
+      <c r="UI3" s="0"/>
+      <c r="UJ3" s="0"/>
+      <c r="UK3" s="0"/>
+      <c r="UL3" s="0"/>
+      <c r="UM3" s="0"/>
+      <c r="UN3" s="0"/>
+      <c r="UO3" s="0"/>
+      <c r="UP3" s="0"/>
+      <c r="UQ3" s="0"/>
+      <c r="UR3" s="0"/>
+      <c r="US3" s="0"/>
+      <c r="UT3" s="0"/>
+      <c r="UU3" s="0"/>
+      <c r="UV3" s="0"/>
+      <c r="UW3" s="0"/>
+      <c r="UX3" s="0"/>
+      <c r="UY3" s="0"/>
+      <c r="UZ3" s="0"/>
+      <c r="VA3" s="0"/>
+      <c r="VB3" s="0"/>
+      <c r="VC3" s="0"/>
+      <c r="VD3" s="0"/>
+      <c r="VE3" s="0"/>
+      <c r="VF3" s="0"/>
+      <c r="VG3" s="0"/>
+      <c r="VH3" s="0"/>
+      <c r="VI3" s="0"/>
+      <c r="VJ3" s="0"/>
+      <c r="VK3" s="0"/>
+      <c r="VL3" s="0"/>
+      <c r="VM3" s="0"/>
+      <c r="VN3" s="0"/>
+      <c r="VO3" s="0"/>
+      <c r="VP3" s="0"/>
+      <c r="VQ3" s="0"/>
+      <c r="VR3" s="0"/>
+      <c r="VS3" s="0"/>
+      <c r="VT3" s="0"/>
+      <c r="VU3" s="0"/>
+      <c r="VV3" s="0"/>
+      <c r="VW3" s="0"/>
+      <c r="VX3" s="0"/>
+      <c r="VY3" s="0"/>
+      <c r="VZ3" s="0"/>
+      <c r="WA3" s="0"/>
+      <c r="WB3" s="0"/>
+      <c r="WC3" s="0"/>
+      <c r="WD3" s="0"/>
+      <c r="WE3" s="0"/>
+      <c r="WF3" s="0"/>
+      <c r="WG3" s="0"/>
+      <c r="WH3" s="0"/>
+      <c r="WI3" s="0"/>
+      <c r="WJ3" s="0"/>
+      <c r="WK3" s="0"/>
+      <c r="WL3" s="0"/>
+      <c r="WM3" s="0"/>
+      <c r="WN3" s="0"/>
+      <c r="WO3" s="0"/>
+      <c r="WP3" s="0"/>
+      <c r="WQ3" s="0"/>
+      <c r="WR3" s="0"/>
+      <c r="WS3" s="0"/>
+      <c r="WT3" s="0"/>
+      <c r="WU3" s="0"/>
+      <c r="WV3" s="0"/>
+      <c r="WW3" s="0"/>
+      <c r="WX3" s="0"/>
+      <c r="WY3" s="0"/>
+      <c r="WZ3" s="0"/>
+      <c r="XA3" s="0"/>
+      <c r="XB3" s="0"/>
+      <c r="XC3" s="0"/>
+      <c r="XD3" s="0"/>
+      <c r="XE3" s="0"/>
+      <c r="XF3" s="0"/>
+      <c r="XG3" s="0"/>
+      <c r="XH3" s="0"/>
+      <c r="XI3" s="0"/>
+      <c r="XJ3" s="0"/>
+      <c r="XK3" s="0"/>
+      <c r="XL3" s="0"/>
+      <c r="XM3" s="0"/>
+      <c r="XN3" s="0"/>
+      <c r="XO3" s="0"/>
+      <c r="XP3" s="0"/>
+      <c r="XQ3" s="0"/>
+      <c r="XR3" s="0"/>
+      <c r="XS3" s="0"/>
+      <c r="XT3" s="0"/>
+      <c r="XU3" s="0"/>
+      <c r="XV3" s="0"/>
+      <c r="XW3" s="0"/>
+      <c r="XX3" s="0"/>
+      <c r="XY3" s="0"/>
+      <c r="XZ3" s="0"/>
+      <c r="YA3" s="0"/>
+      <c r="YB3" s="0"/>
+      <c r="YC3" s="0"/>
+      <c r="YD3" s="0"/>
+      <c r="YE3" s="0"/>
+      <c r="YF3" s="0"/>
+      <c r="YG3" s="0"/>
+      <c r="YH3" s="0"/>
+      <c r="YI3" s="0"/>
+      <c r="YJ3" s="0"/>
+      <c r="YK3" s="0"/>
+      <c r="YL3" s="0"/>
+      <c r="YM3" s="0"/>
+      <c r="YN3" s="0"/>
+      <c r="YO3" s="0"/>
+      <c r="YP3" s="0"/>
+      <c r="YQ3" s="0"/>
+      <c r="YR3" s="0"/>
+      <c r="YS3" s="0"/>
+      <c r="YT3" s="0"/>
+      <c r="YU3" s="0"/>
+      <c r="YV3" s="0"/>
+      <c r="YW3" s="0"/>
+      <c r="YX3" s="0"/>
+      <c r="YY3" s="0"/>
+      <c r="YZ3" s="0"/>
+      <c r="ZA3" s="0"/>
+      <c r="ZB3" s="0"/>
+      <c r="ZC3" s="0"/>
+      <c r="ZD3" s="0"/>
+      <c r="ZE3" s="0"/>
+      <c r="ZF3" s="0"/>
+      <c r="ZG3" s="0"/>
+      <c r="ZH3" s="0"/>
+      <c r="ZI3" s="0"/>
+      <c r="ZJ3" s="0"/>
+      <c r="ZK3" s="0"/>
+      <c r="ZL3" s="0"/>
+      <c r="ZM3" s="0"/>
+      <c r="ZN3" s="0"/>
+      <c r="ZO3" s="0"/>
+      <c r="ZP3" s="0"/>
+      <c r="ZQ3" s="0"/>
+      <c r="ZR3" s="0"/>
+      <c r="ZS3" s="0"/>
+      <c r="ZT3" s="0"/>
+      <c r="ZU3" s="0"/>
+      <c r="ZV3" s="0"/>
+      <c r="ZW3" s="0"/>
+      <c r="ZX3" s="0"/>
+      <c r="ZY3" s="0"/>
+      <c r="ZZ3" s="0"/>
+      <c r="AAA3" s="0"/>
+      <c r="AAB3" s="0"/>
+      <c r="AAC3" s="0"/>
+      <c r="AAD3" s="0"/>
+      <c r="AAE3" s="0"/>
+      <c r="AAF3" s="0"/>
+      <c r="AAG3" s="0"/>
+      <c r="AAH3" s="0"/>
+      <c r="AAI3" s="0"/>
+      <c r="AAJ3" s="0"/>
+      <c r="AAK3" s="0"/>
+      <c r="AAL3" s="0"/>
+      <c r="AAM3" s="0"/>
+      <c r="AAN3" s="0"/>
+      <c r="AAO3" s="0"/>
+      <c r="AAP3" s="0"/>
+      <c r="AAQ3" s="0"/>
+      <c r="AAR3" s="0"/>
+      <c r="AAS3" s="0"/>
+      <c r="AAT3" s="0"/>
+      <c r="AAU3" s="0"/>
+      <c r="AAV3" s="0"/>
+      <c r="AAW3" s="0"/>
+      <c r="AAX3" s="0"/>
+      <c r="AAY3" s="0"/>
+      <c r="AAZ3" s="0"/>
+      <c r="ABA3" s="0"/>
+      <c r="ABB3" s="0"/>
+      <c r="ABC3" s="0"/>
+      <c r="ABD3" s="0"/>
+      <c r="ABE3" s="0"/>
+      <c r="ABF3" s="0"/>
+      <c r="ABG3" s="0"/>
+      <c r="ABH3" s="0"/>
+      <c r="ABI3" s="0"/>
+      <c r="ABJ3" s="0"/>
+      <c r="ABK3" s="0"/>
+      <c r="ABL3" s="0"/>
+      <c r="ABM3" s="0"/>
+      <c r="ABN3" s="0"/>
+      <c r="ABO3" s="0"/>
+      <c r="ABP3" s="0"/>
+      <c r="ABQ3" s="0"/>
+      <c r="ABR3" s="0"/>
+      <c r="ABS3" s="0"/>
+      <c r="ABT3" s="0"/>
+      <c r="ABU3" s="0"/>
+      <c r="ABV3" s="0"/>
+      <c r="ABW3" s="0"/>
+      <c r="ABX3" s="0"/>
+      <c r="ABY3" s="0"/>
+      <c r="ABZ3" s="0"/>
+      <c r="ACA3" s="0"/>
+      <c r="ACB3" s="0"/>
+      <c r="ACC3" s="0"/>
+      <c r="ACD3" s="0"/>
+      <c r="ACE3" s="0"/>
+      <c r="ACF3" s="0"/>
+      <c r="ACG3" s="0"/>
+      <c r="ACH3" s="0"/>
+      <c r="ACI3" s="0"/>
+      <c r="ACJ3" s="0"/>
+      <c r="ACK3" s="0"/>
+      <c r="ACL3" s="0"/>
+      <c r="ACM3" s="0"/>
+      <c r="ACN3" s="0"/>
+      <c r="ACO3" s="0"/>
+      <c r="ACP3" s="0"/>
+      <c r="ACQ3" s="0"/>
+      <c r="ACR3" s="0"/>
+      <c r="ACS3" s="0"/>
+      <c r="ACT3" s="0"/>
+      <c r="ACU3" s="0"/>
+      <c r="ACV3" s="0"/>
+      <c r="ACW3" s="0"/>
+      <c r="ACX3" s="0"/>
+      <c r="ACY3" s="0"/>
+      <c r="ACZ3" s="0"/>
+      <c r="ADA3" s="0"/>
+      <c r="ADB3" s="0"/>
+      <c r="ADC3" s="0"/>
+      <c r="ADD3" s="0"/>
+      <c r="ADE3" s="0"/>
+      <c r="ADF3" s="0"/>
+      <c r="ADG3" s="0"/>
+      <c r="ADH3" s="0"/>
+      <c r="ADI3" s="0"/>
+      <c r="ADJ3" s="0"/>
+      <c r="ADK3" s="0"/>
+      <c r="ADL3" s="0"/>
+      <c r="ADM3" s="0"/>
+      <c r="ADN3" s="0"/>
+      <c r="ADO3" s="0"/>
+      <c r="ADP3" s="0"/>
+      <c r="ADQ3" s="0"/>
+      <c r="ADR3" s="0"/>
+      <c r="ADS3" s="0"/>
+      <c r="ADT3" s="0"/>
+      <c r="ADU3" s="0"/>
+      <c r="ADV3" s="0"/>
+      <c r="ADW3" s="0"/>
+      <c r="ADX3" s="0"/>
+      <c r="ADY3" s="0"/>
+      <c r="ADZ3" s="0"/>
+      <c r="AEA3" s="0"/>
+      <c r="AEB3" s="0"/>
+      <c r="AEC3" s="0"/>
+      <c r="AED3" s="0"/>
+      <c r="AEE3" s="0"/>
+      <c r="AEF3" s="0"/>
+      <c r="AEG3" s="0"/>
+      <c r="AEH3" s="0"/>
+      <c r="AEI3" s="0"/>
+      <c r="AEJ3" s="0"/>
+      <c r="AEK3" s="0"/>
+      <c r="AEL3" s="0"/>
+      <c r="AEM3" s="0"/>
+      <c r="AEN3" s="0"/>
+      <c r="AEO3" s="0"/>
+      <c r="AEP3" s="0"/>
+      <c r="AEQ3" s="0"/>
+      <c r="AER3" s="0"/>
+      <c r="AES3" s="0"/>
+      <c r="AET3" s="0"/>
+      <c r="AEU3" s="0"/>
+      <c r="AEV3" s="0"/>
+      <c r="AEW3" s="0"/>
+      <c r="AEX3" s="0"/>
+      <c r="AEY3" s="0"/>
+      <c r="AEZ3" s="0"/>
+      <c r="AFA3" s="0"/>
+      <c r="AFB3" s="0"/>
+      <c r="AFC3" s="0"/>
+      <c r="AFD3" s="0"/>
+      <c r="AFE3" s="0"/>
+      <c r="AFF3" s="0"/>
+      <c r="AFG3" s="0"/>
+      <c r="AFH3" s="0"/>
+      <c r="AFI3" s="0"/>
+      <c r="AFJ3" s="0"/>
+      <c r="AFK3" s="0"/>
+      <c r="AFL3" s="0"/>
+      <c r="AFM3" s="0"/>
+      <c r="AFN3" s="0"/>
+      <c r="AFO3" s="0"/>
+      <c r="AFP3" s="0"/>
+      <c r="AFQ3" s="0"/>
+      <c r="AFR3" s="0"/>
+      <c r="AFS3" s="0"/>
+      <c r="AFT3" s="0"/>
+      <c r="AFU3" s="0"/>
+      <c r="AFV3" s="0"/>
+      <c r="AFW3" s="0"/>
+      <c r="AFX3" s="0"/>
+      <c r="AFY3" s="0"/>
+      <c r="AFZ3" s="0"/>
+      <c r="AGA3" s="0"/>
+      <c r="AGB3" s="0"/>
+      <c r="AGC3" s="0"/>
+      <c r="AGD3" s="0"/>
+      <c r="AGE3" s="0"/>
+      <c r="AGF3" s="0"/>
+      <c r="AGG3" s="0"/>
+      <c r="AGH3" s="0"/>
+      <c r="AGI3" s="0"/>
+      <c r="AGJ3" s="0"/>
+      <c r="AGK3" s="0"/>
+      <c r="AGL3" s="0"/>
+      <c r="AGM3" s="0"/>
+      <c r="AGN3" s="0"/>
+      <c r="AGO3" s="0"/>
+      <c r="AGP3" s="0"/>
+      <c r="AGQ3" s="0"/>
+      <c r="AGR3" s="0"/>
+      <c r="AGS3" s="0"/>
+      <c r="AGT3" s="0"/>
+      <c r="AGU3" s="0"/>
+      <c r="AGV3" s="0"/>
+      <c r="AGW3" s="0"/>
+      <c r="AGX3" s="0"/>
+      <c r="AGY3" s="0"/>
+      <c r="AGZ3" s="0"/>
+      <c r="AHA3" s="0"/>
+      <c r="AHB3" s="0"/>
+      <c r="AHC3" s="0"/>
+      <c r="AHD3" s="0"/>
+      <c r="AHE3" s="0"/>
+      <c r="AHF3" s="0"/>
+      <c r="AHG3" s="0"/>
+      <c r="AHH3" s="0"/>
+      <c r="AHI3" s="0"/>
+      <c r="AHJ3" s="0"/>
+      <c r="AHK3" s="0"/>
+      <c r="AHL3" s="0"/>
+      <c r="AHM3" s="0"/>
+      <c r="AHN3" s="0"/>
+      <c r="AHO3" s="0"/>
+      <c r="AHP3" s="0"/>
+      <c r="AHQ3" s="0"/>
+      <c r="AHR3" s="0"/>
+      <c r="AHS3" s="0"/>
+      <c r="AHT3" s="0"/>
+      <c r="AHU3" s="0"/>
+      <c r="AHV3" s="0"/>
+      <c r="AHW3" s="0"/>
+      <c r="AHX3" s="0"/>
+      <c r="AHY3" s="0"/>
+      <c r="AHZ3" s="0"/>
+      <c r="AIA3" s="0"/>
+      <c r="AIB3" s="0"/>
+      <c r="AIC3" s="0"/>
+      <c r="AID3" s="0"/>
+      <c r="AIE3" s="0"/>
+      <c r="AIF3" s="0"/>
+      <c r="AIG3" s="0"/>
+      <c r="AIH3" s="0"/>
+      <c r="AII3" s="0"/>
+      <c r="AIJ3" s="0"/>
+      <c r="AIK3" s="0"/>
+      <c r="AIL3" s="0"/>
+      <c r="AIM3" s="0"/>
+      <c r="AIN3" s="0"/>
+      <c r="AIO3" s="0"/>
+      <c r="AIP3" s="0"/>
+      <c r="AIQ3" s="0"/>
+      <c r="AIR3" s="0"/>
+      <c r="AIS3" s="0"/>
+      <c r="AIT3" s="0"/>
+      <c r="AIU3" s="0"/>
+      <c r="AIV3" s="0"/>
+      <c r="AIW3" s="0"/>
+      <c r="AIX3" s="0"/>
+      <c r="AIY3" s="0"/>
+      <c r="AIZ3" s="0"/>
+      <c r="AJA3" s="0"/>
+      <c r="AJB3" s="0"/>
+      <c r="AJC3" s="0"/>
+      <c r="AJD3" s="0"/>
+      <c r="AJE3" s="0"/>
+      <c r="AJF3" s="0"/>
+      <c r="AJG3" s="0"/>
+      <c r="AJH3" s="0"/>
+      <c r="AJI3" s="0"/>
+      <c r="AJJ3" s="0"/>
+      <c r="AJK3" s="0"/>
+      <c r="AJL3" s="0"/>
+      <c r="AJM3" s="0"/>
+      <c r="AJN3" s="0"/>
+      <c r="AJO3" s="0"/>
+      <c r="AJP3" s="0"/>
+      <c r="AJQ3" s="0"/>
+      <c r="AJR3" s="0"/>
+      <c r="AJS3" s="0"/>
+      <c r="AJT3" s="0"/>
+      <c r="AJU3" s="0"/>
+      <c r="AJV3" s="0"/>
+      <c r="AJW3" s="0"/>
+      <c r="AJX3" s="0"/>
+      <c r="AJY3" s="0"/>
+      <c r="AJZ3" s="0"/>
+      <c r="AKA3" s="0"/>
+      <c r="AKB3" s="0"/>
+      <c r="AKC3" s="0"/>
+      <c r="AKD3" s="0"/>
+      <c r="AKE3" s="0"/>
+      <c r="AKF3" s="0"/>
+      <c r="AKG3" s="0"/>
+      <c r="AKH3" s="0"/>
+      <c r="AKI3" s="0"/>
+      <c r="AKJ3" s="0"/>
+      <c r="AKK3" s="0"/>
+      <c r="AKL3" s="0"/>
+      <c r="AKM3" s="0"/>
+      <c r="AKN3" s="0"/>
+      <c r="AKO3" s="0"/>
+      <c r="AKP3" s="0"/>
+      <c r="AKQ3" s="0"/>
+      <c r="AKR3" s="0"/>
+      <c r="AKS3" s="0"/>
+      <c r="AKT3" s="0"/>
+      <c r="AKU3" s="0"/>
+      <c r="AKV3" s="0"/>
+      <c r="AKW3" s="0"/>
+      <c r="AKX3" s="0"/>
+      <c r="AKY3" s="0"/>
+      <c r="AKZ3" s="0"/>
+      <c r="ALA3" s="0"/>
+      <c r="ALB3" s="0"/>
+      <c r="ALC3" s="0"/>
+      <c r="ALD3" s="0"/>
+      <c r="ALE3" s="0"/>
+      <c r="ALF3" s="0"/>
+      <c r="ALG3" s="0"/>
+      <c r="ALH3" s="0"/>
+      <c r="ALI3" s="0"/>
+      <c r="ALJ3" s="0"/>
+      <c r="ALK3" s="0"/>
+      <c r="ALL3" s="0"/>
+      <c r="ALM3" s="0"/>
+      <c r="ALN3" s="0"/>
+      <c r="ALO3" s="0"/>
+      <c r="ALP3" s="0"/>
+      <c r="ALQ3" s="0"/>
+      <c r="ALR3" s="0"/>
+      <c r="ALS3" s="0"/>
+      <c r="ALT3" s="0"/>
+      <c r="ALU3" s="0"/>
+      <c r="ALV3" s="0"/>
+      <c r="ALW3" s="0"/>
+      <c r="ALX3" s="0"/>
+      <c r="ALY3" s="0"/>
+      <c r="ALZ3" s="0"/>
+      <c r="AMA3" s="0"/>
+      <c r="AMB3" s="0"/>
+      <c r="AMC3" s="0"/>
+      <c r="AMD3" s="0"/>
+      <c r="AME3" s="0"/>
+      <c r="AMF3" s="0"/>
+      <c r="AMG3" s="0"/>
+      <c r="AMH3" s="0"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -699,24 +3988,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:IW4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,48 +4010,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -773,13 +4059,13 @@
         <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>50000</v>
@@ -791,11 +4077,581 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>66</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>200001</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>200001</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>200001</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="1"/>
+      <c r="BM3" s="1"/>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="1"/>
+      <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
+      <c r="BU3" s="1"/>
+      <c r="BV3" s="1"/>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="1"/>
+      <c r="BY3" s="1"/>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="1"/>
+      <c r="CB3" s="1"/>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="1"/>
+      <c r="CE3" s="1"/>
+      <c r="CF3" s="1"/>
+      <c r="CG3" s="1"/>
+      <c r="CH3" s="1"/>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="1"/>
+      <c r="CK3" s="1"/>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="1"/>
+      <c r="CN3" s="1"/>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="1"/>
+      <c r="CQ3" s="1"/>
+      <c r="CR3" s="1"/>
+      <c r="CS3" s="1"/>
+      <c r="CT3" s="1"/>
+      <c r="CU3" s="1"/>
+      <c r="CV3" s="1"/>
+      <c r="CW3" s="1"/>
+      <c r="CX3" s="1"/>
+      <c r="CY3" s="1"/>
+      <c r="CZ3" s="1"/>
+      <c r="DA3" s="1"/>
+      <c r="DB3" s="1"/>
+      <c r="DC3" s="1"/>
+      <c r="DD3" s="1"/>
+      <c r="DE3" s="1"/>
+      <c r="DF3" s="1"/>
+      <c r="DG3" s="1"/>
+      <c r="DH3" s="1"/>
+      <c r="DI3" s="1"/>
+      <c r="DJ3" s="1"/>
+      <c r="DK3" s="1"/>
+      <c r="DL3" s="1"/>
+      <c r="DM3" s="1"/>
+      <c r="DN3" s="1"/>
+      <c r="DO3" s="1"/>
+      <c r="DP3" s="1"/>
+      <c r="DQ3" s="1"/>
+      <c r="DR3" s="1"/>
+      <c r="DS3" s="1"/>
+      <c r="DT3" s="1"/>
+      <c r="DU3" s="1"/>
+      <c r="DV3" s="1"/>
+      <c r="DW3" s="1"/>
+      <c r="DX3" s="1"/>
+      <c r="DY3" s="1"/>
+      <c r="DZ3" s="1"/>
+      <c r="EA3" s="1"/>
+      <c r="EB3" s="1"/>
+      <c r="EC3" s="1"/>
+      <c r="ED3" s="1"/>
+      <c r="EE3" s="1"/>
+      <c r="EF3" s="1"/>
+      <c r="EG3" s="1"/>
+      <c r="EH3" s="1"/>
+      <c r="EI3" s="1"/>
+      <c r="EJ3" s="1"/>
+      <c r="EK3" s="1"/>
+      <c r="EL3" s="1"/>
+      <c r="EM3" s="1"/>
+      <c r="EN3" s="1"/>
+      <c r="EO3" s="1"/>
+      <c r="EP3" s="1"/>
+      <c r="EQ3" s="1"/>
+      <c r="ER3" s="1"/>
+      <c r="ES3" s="1"/>
+      <c r="ET3" s="1"/>
+      <c r="EU3" s="1"/>
+      <c r="EV3" s="1"/>
+      <c r="EW3" s="1"/>
+      <c r="EX3" s="1"/>
+      <c r="EY3" s="1"/>
+      <c r="EZ3" s="1"/>
+      <c r="FA3" s="1"/>
+      <c r="FB3" s="1"/>
+      <c r="FC3" s="1"/>
+      <c r="FD3" s="1"/>
+      <c r="FE3" s="1"/>
+      <c r="FF3" s="1"/>
+      <c r="FG3" s="1"/>
+      <c r="FH3" s="1"/>
+      <c r="FI3" s="1"/>
+      <c r="FJ3" s="1"/>
+      <c r="FK3" s="1"/>
+      <c r="FL3" s="1"/>
+      <c r="FM3" s="1"/>
+      <c r="FN3" s="1"/>
+      <c r="FO3" s="1"/>
+      <c r="FP3" s="1"/>
+      <c r="FQ3" s="1"/>
+      <c r="FR3" s="1"/>
+      <c r="FS3" s="1"/>
+      <c r="FT3" s="1"/>
+      <c r="FU3" s="1"/>
+      <c r="FV3" s="1"/>
+      <c r="FW3" s="1"/>
+      <c r="FX3" s="1"/>
+      <c r="FY3" s="1"/>
+      <c r="FZ3" s="1"/>
+      <c r="GA3" s="1"/>
+      <c r="GB3" s="1"/>
+      <c r="GC3" s="1"/>
+      <c r="GD3" s="1"/>
+      <c r="GE3" s="1"/>
+      <c r="GF3" s="1"/>
+      <c r="GG3" s="1"/>
+      <c r="GH3" s="1"/>
+      <c r="GI3" s="1"/>
+      <c r="GJ3" s="1"/>
+      <c r="GK3" s="1"/>
+      <c r="GL3" s="1"/>
+      <c r="GM3" s="1"/>
+      <c r="GN3" s="1"/>
+      <c r="GO3" s="1"/>
+      <c r="GP3" s="1"/>
+      <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1"/>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
+      <c r="HM3" s="1"/>
+      <c r="HN3" s="1"/>
+      <c r="HO3" s="1"/>
+      <c r="HP3" s="1"/>
+      <c r="HQ3" s="1"/>
+      <c r="HR3" s="1"/>
+      <c r="HS3" s="1"/>
+      <c r="HT3" s="1"/>
+      <c r="HU3" s="1"/>
+      <c r="HV3" s="1"/>
+      <c r="HW3" s="1"/>
+      <c r="HX3" s="1"/>
+      <c r="HY3" s="1"/>
+      <c r="HZ3" s="1"/>
+      <c r="IA3" s="1"/>
+      <c r="IB3" s="1"/>
+      <c r="IC3" s="1"/>
+      <c r="ID3" s="1"/>
+      <c r="IE3" s="1"/>
+      <c r="IF3" s="1"/>
+      <c r="IG3" s="1"/>
+      <c r="IH3" s="1"/>
+      <c r="II3" s="1"/>
+      <c r="IJ3" s="1"/>
+      <c r="IK3" s="1"/>
+      <c r="IL3" s="1"/>
+      <c r="IM3" s="1"/>
+      <c r="IN3" s="1"/>
+      <c r="IO3" s="1"/>
+      <c r="IP3" s="1"/>
+      <c r="IQ3" s="1"/>
+      <c r="IR3" s="1"/>
+      <c r="IS3" s="1"/>
+      <c r="IT3" s="1"/>
+      <c r="IU3" s="1"/>
+      <c r="IV3" s="1"/>
+      <c r="IW3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J4" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="1"/>
+      <c r="BM4" s="1"/>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="1"/>
+      <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
+      <c r="BU4" s="1"/>
+      <c r="BV4" s="1"/>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="1"/>
+      <c r="BY4" s="1"/>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="1"/>
+      <c r="CB4" s="1"/>
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="1"/>
+      <c r="CE4" s="1"/>
+      <c r="CF4" s="1"/>
+      <c r="CG4" s="1"/>
+      <c r="CH4" s="1"/>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="1"/>
+      <c r="CK4" s="1"/>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="1"/>
+      <c r="CN4" s="1"/>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="1"/>
+      <c r="CQ4" s="1"/>
+      <c r="CR4" s="1"/>
+      <c r="CS4" s="1"/>
+      <c r="CT4" s="1"/>
+      <c r="CU4" s="1"/>
+      <c r="CV4" s="1"/>
+      <c r="CW4" s="1"/>
+      <c r="CX4" s="1"/>
+      <c r="CY4" s="1"/>
+      <c r="CZ4" s="1"/>
+      <c r="DA4" s="1"/>
+      <c r="DB4" s="1"/>
+      <c r="DC4" s="1"/>
+      <c r="DD4" s="1"/>
+      <c r="DE4" s="1"/>
+      <c r="DF4" s="1"/>
+      <c r="DG4" s="1"/>
+      <c r="DH4" s="1"/>
+      <c r="DI4" s="1"/>
+      <c r="DJ4" s="1"/>
+      <c r="DK4" s="1"/>
+      <c r="DL4" s="1"/>
+      <c r="DM4" s="1"/>
+      <c r="DN4" s="1"/>
+      <c r="DO4" s="1"/>
+      <c r="DP4" s="1"/>
+      <c r="DQ4" s="1"/>
+      <c r="DR4" s="1"/>
+      <c r="DS4" s="1"/>
+      <c r="DT4" s="1"/>
+      <c r="DU4" s="1"/>
+      <c r="DV4" s="1"/>
+      <c r="DW4" s="1"/>
+      <c r="DX4" s="1"/>
+      <c r="DY4" s="1"/>
+      <c r="DZ4" s="1"/>
+      <c r="EA4" s="1"/>
+      <c r="EB4" s="1"/>
+      <c r="EC4" s="1"/>
+      <c r="ED4" s="1"/>
+      <c r="EE4" s="1"/>
+      <c r="EF4" s="1"/>
+      <c r="EG4" s="1"/>
+      <c r="EH4" s="1"/>
+      <c r="EI4" s="1"/>
+      <c r="EJ4" s="1"/>
+      <c r="EK4" s="1"/>
+      <c r="EL4" s="1"/>
+      <c r="EM4" s="1"/>
+      <c r="EN4" s="1"/>
+      <c r="EO4" s="1"/>
+      <c r="EP4" s="1"/>
+      <c r="EQ4" s="1"/>
+      <c r="ER4" s="1"/>
+      <c r="ES4" s="1"/>
+      <c r="ET4" s="1"/>
+      <c r="EU4" s="1"/>
+      <c r="EV4" s="1"/>
+      <c r="EW4" s="1"/>
+      <c r="EX4" s="1"/>
+      <c r="EY4" s="1"/>
+      <c r="EZ4" s="1"/>
+      <c r="FA4" s="1"/>
+      <c r="FB4" s="1"/>
+      <c r="FC4" s="1"/>
+      <c r="FD4" s="1"/>
+      <c r="FE4" s="1"/>
+      <c r="FF4" s="1"/>
+      <c r="FG4" s="1"/>
+      <c r="FH4" s="1"/>
+      <c r="FI4" s="1"/>
+      <c r="FJ4" s="1"/>
+      <c r="FK4" s="1"/>
+      <c r="FL4" s="1"/>
+      <c r="FM4" s="1"/>
+      <c r="FN4" s="1"/>
+      <c r="FO4" s="1"/>
+      <c r="FP4" s="1"/>
+      <c r="FQ4" s="1"/>
+      <c r="FR4" s="1"/>
+      <c r="FS4" s="1"/>
+      <c r="FT4" s="1"/>
+      <c r="FU4" s="1"/>
+      <c r="FV4" s="1"/>
+      <c r="FW4" s="1"/>
+      <c r="FX4" s="1"/>
+      <c r="FY4" s="1"/>
+      <c r="FZ4" s="1"/>
+      <c r="GA4" s="1"/>
+      <c r="GB4" s="1"/>
+      <c r="GC4" s="1"/>
+      <c r="GD4" s="1"/>
+      <c r="GE4" s="1"/>
+      <c r="GF4" s="1"/>
+      <c r="GG4" s="1"/>
+      <c r="GH4" s="1"/>
+      <c r="GI4" s="1"/>
+      <c r="GJ4" s="1"/>
+      <c r="GK4" s="1"/>
+      <c r="GL4" s="1"/>
+      <c r="GM4" s="1"/>
+      <c r="GN4" s="1"/>
+      <c r="GO4" s="1"/>
+      <c r="GP4" s="1"/>
+      <c r="GQ4" s="1"/>
+      <c r="GR4" s="1"/>
+      <c r="GS4" s="1"/>
+      <c r="GT4" s="1"/>
+      <c r="GU4" s="1"/>
+      <c r="GV4" s="1"/>
+      <c r="GW4" s="1"/>
+      <c r="GX4" s="1"/>
+      <c r="GY4" s="1"/>
+      <c r="GZ4" s="1"/>
+      <c r="HA4" s="1"/>
+      <c r="HB4" s="1"/>
+      <c r="HC4" s="1"/>
+      <c r="HD4" s="1"/>
+      <c r="HE4" s="1"/>
+      <c r="HF4" s="1"/>
+      <c r="HG4" s="1"/>
+      <c r="HH4" s="1"/>
+      <c r="HI4" s="1"/>
+      <c r="HJ4" s="1"/>
+      <c r="HK4" s="1"/>
+      <c r="HL4" s="1"/>
+      <c r="HM4" s="1"/>
+      <c r="HN4" s="1"/>
+      <c r="HO4" s="1"/>
+      <c r="HP4" s="1"/>
+      <c r="HQ4" s="1"/>
+      <c r="HR4" s="1"/>
+      <c r="HS4" s="1"/>
+      <c r="HT4" s="1"/>
+      <c r="HU4" s="1"/>
+      <c r="HV4" s="1"/>
+      <c r="HW4" s="1"/>
+      <c r="HX4" s="1"/>
+      <c r="HY4" s="1"/>
+      <c r="HZ4" s="1"/>
+      <c r="IA4" s="1"/>
+      <c r="IB4" s="1"/>
+      <c r="IC4" s="1"/>
+      <c r="ID4" s="1"/>
+      <c r="IE4" s="1"/>
+      <c r="IF4" s="1"/>
+      <c r="IG4" s="1"/>
+      <c r="IH4" s="1"/>
+      <c r="II4" s="1"/>
+      <c r="IJ4" s="1"/>
+      <c r="IK4" s="1"/>
+      <c r="IL4" s="1"/>
+      <c r="IM4" s="1"/>
+      <c r="IN4" s="1"/>
+      <c r="IO4" s="1"/>
+      <c r="IP4" s="1"/>
+      <c r="IQ4" s="1"/>
+      <c r="IR4" s="1"/>
+      <c r="IS4" s="1"/>
+      <c r="IT4" s="1"/>
+      <c r="IU4" s="1"/>
+      <c r="IV4" s="1"/>
+      <c r="IW4" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -815,16 +4671,14 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,27 +4686,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>69</v>
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>106</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>42724</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -879,38 +4733,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>73</v>
+      <c r="B1" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="C2" s="9" t="n">
         <v>42724</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -57,16 +57,16 @@
     <t xml:space="preserve">Forward to DEE</t>
   </si>
   <si>
-    <t xml:space="preserve">juniorAccountant</t>
+    <t xml:space="preserve">SuperIntendent</t>
   </si>
   <si>
     <t xml:space="preserve">ACCOUNTS</t>
   </si>
   <si>
-    <t xml:space="preserve">Junior Accountant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yash/ACC_IACC_1</t>
+    <t xml:space="preserve">Superintendent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K.Mohammed Juneed/ACC_Superintendent_2</t>
   </si>
   <si>
     <t xml:space="preserve">Forward to Accounts</t>
@@ -567,20 +567,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.5357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.9234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -655,6 +655,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -679,18 +680,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.02040816326531"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3223,11 +3224,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5625,16 +5626,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6887755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6594,10 +6592,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6652,11 +6648,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="130">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
@@ -81,12 +81,24 @@
     <t xml:space="preserve">Commissioner</t>
   </si>
   <si>
-    <t xml:space="preserve">S.Ravindra Babu ~ ADM_Commissioner_1</t>
+    <t xml:space="preserve">S.Ravindra Babu/ADM_Commissioner_1</t>
   </si>
   <si>
     <t xml:space="preserve">Forward to commissioner</t>
   </si>
   <si>
+    <t xml:space="preserve">assis_Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assistant Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A.P.Sreenivasulu/ENG_Assistant Engineer_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forward to Engineer</t>
+  </si>
+  <si>
     <t xml:space="preserve">date</t>
   </si>
   <si>
@@ -403,9 +415,6 @@
   </si>
   <si>
     <t xml:space="preserve">TSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assistant Engineer</t>
   </si>
 </sst>
 </file>
@@ -418,7 +427,7 @@
     <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -444,6 +453,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -508,7 +523,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,7 +536,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,7 +552,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -541,7 +564,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -570,17 +593,17 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="33.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.1785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -654,6 +677,23 @@
         <v>19</v>
       </c>
       <c r="F4" s="2"/>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -680,18 +720,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.75"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.47959183673469"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -699,122 +739,122 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="I1" s="5" t="s">
         <v>31</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
+      <c r="A2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="M2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="IX3" s="0"/>
       <c r="IY3" s="0"/>
@@ -1586,43 +1626,43 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="IX4" s="0"/>
       <c r="IY4" s="0"/>
@@ -2394,43 +2434,43 @@
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="IX5" s="0"/>
       <c r="IY5" s="0"/>
@@ -3224,11 +3264,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="7.56122448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3236,41 +3276,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="IX3" s="0"/>
       <c r="IY3" s="0"/>
@@ -4042,16 +4082,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>79</v>
+      <c r="D4" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="IX4" s="0"/>
       <c r="IY4" s="0"/>
@@ -4823,16 +4863,16 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="IX5" s="0"/>
       <c r="IY5" s="0"/>
@@ -5626,13 +5666,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,62 +5683,62 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="7" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>50000</v>
@@ -5707,35 +5750,35 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="7" t="n">
+        <v>106</v>
+      </c>
+      <c r="B3" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>200001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>200001</v>
@@ -5747,10 +5790,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -6000,27 +6043,27 @@
     </row>
     <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="7" t="n">
+        <v>111</v>
+      </c>
+      <c r="B4" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>5000000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>5000000</v>
@@ -6032,10 +6075,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -6285,42 +6328,42 @@
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="7" t="n">
+        <v>115</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -6592,8 +6635,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6601,27 +6646,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>42724</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6648,39 +6693,39 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>121</v>
+      <c r="B1" s="10" t="s">
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="9" t="n">
+        <v>129</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>42724</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="approvalDetails" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="127">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
@@ -51,7 +51,7 @@
     <t xml:space="preserve">Deputy Executive Engineer</t>
   </si>
   <si>
-    <t xml:space="preserve">S.Nayab Rasool/ENG_Dy.Executive Engineer_1</t>
+    <t xml:space="preserve">S.Nayab Rasool/ENG_Dy. Executive Engineer_1</t>
   </si>
   <si>
     <t xml:space="preserve">Forward to DEE</t>
@@ -228,6 +228,24 @@
     <t xml:space="preserve">E-Procurement (For above 1 Lakh)</t>
   </si>
   <si>
+    <t xml:space="preserve">Estimate_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction of an Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LoR Number 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Building construction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buildings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office Buildings</t>
+  </si>
+  <si>
     <t xml:space="preserve">fund</t>
   </si>
   <si>
@@ -258,6 +276,15 @@
     <t xml:space="preserve">SpillOverFinancial_3</t>
   </si>
   <si>
+    <t xml:space="preserve">EstimateFinancial_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0600 - Estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4122002-CWIP-Commercial Complex</t>
+  </si>
+  <si>
     <t xml:space="preserve">worksOrderCreated</t>
   </si>
   <si>
@@ -331,6 +358,18 @@
   </si>
   <si>
     <t xml:space="preserve">Each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EstimateWork_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubic Metres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Official</t>
   </si>
   <si>
     <t xml:space="preserve">administrativeSanctionNumber</t>
@@ -530,21 +569,21 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="31.5357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="37.9234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="34.1785714285714"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -562,7 +601,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -580,7 +619,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="36.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -598,7 +637,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="47.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -632,25 +671,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.02040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="7.02040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,6 +2391,814 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="IX5" s="0"/>
+      <c r="IY5" s="0"/>
+      <c r="IZ5" s="0"/>
+      <c r="JA5" s="0"/>
+      <c r="JB5" s="0"/>
+      <c r="JC5" s="0"/>
+      <c r="JD5" s="0"/>
+      <c r="JE5" s="0"/>
+      <c r="JF5" s="0"/>
+      <c r="JG5" s="0"/>
+      <c r="JH5" s="0"/>
+      <c r="JI5" s="0"/>
+      <c r="JJ5" s="0"/>
+      <c r="JK5" s="0"/>
+      <c r="JL5" s="0"/>
+      <c r="JM5" s="0"/>
+      <c r="JN5" s="0"/>
+      <c r="JO5" s="0"/>
+      <c r="JP5" s="0"/>
+      <c r="JQ5" s="0"/>
+      <c r="JR5" s="0"/>
+      <c r="JS5" s="0"/>
+      <c r="JT5" s="0"/>
+      <c r="JU5" s="0"/>
+      <c r="JV5" s="0"/>
+      <c r="JW5" s="0"/>
+      <c r="JX5" s="0"/>
+      <c r="JY5" s="0"/>
+      <c r="JZ5" s="0"/>
+      <c r="KA5" s="0"/>
+      <c r="KB5" s="0"/>
+      <c r="KC5" s="0"/>
+      <c r="KD5" s="0"/>
+      <c r="KE5" s="0"/>
+      <c r="KF5" s="0"/>
+      <c r="KG5" s="0"/>
+      <c r="KH5" s="0"/>
+      <c r="KI5" s="0"/>
+      <c r="KJ5" s="0"/>
+      <c r="KK5" s="0"/>
+      <c r="KL5" s="0"/>
+      <c r="KM5" s="0"/>
+      <c r="KN5" s="0"/>
+      <c r="KO5" s="0"/>
+      <c r="KP5" s="0"/>
+      <c r="KQ5" s="0"/>
+      <c r="KR5" s="0"/>
+      <c r="KS5" s="0"/>
+      <c r="KT5" s="0"/>
+      <c r="KU5" s="0"/>
+      <c r="KV5" s="0"/>
+      <c r="KW5" s="0"/>
+      <c r="KX5" s="0"/>
+      <c r="KY5" s="0"/>
+      <c r="KZ5" s="0"/>
+      <c r="LA5" s="0"/>
+      <c r="LB5" s="0"/>
+      <c r="LC5" s="0"/>
+      <c r="LD5" s="0"/>
+      <c r="LE5" s="0"/>
+      <c r="LF5" s="0"/>
+      <c r="LG5" s="0"/>
+      <c r="LH5" s="0"/>
+      <c r="LI5" s="0"/>
+      <c r="LJ5" s="0"/>
+      <c r="LK5" s="0"/>
+      <c r="LL5" s="0"/>
+      <c r="LM5" s="0"/>
+      <c r="LN5" s="0"/>
+      <c r="LO5" s="0"/>
+      <c r="LP5" s="0"/>
+      <c r="LQ5" s="0"/>
+      <c r="LR5" s="0"/>
+      <c r="LS5" s="0"/>
+      <c r="LT5" s="0"/>
+      <c r="LU5" s="0"/>
+      <c r="LV5" s="0"/>
+      <c r="LW5" s="0"/>
+      <c r="LX5" s="0"/>
+      <c r="LY5" s="0"/>
+      <c r="LZ5" s="0"/>
+      <c r="MA5" s="0"/>
+      <c r="MB5" s="0"/>
+      <c r="MC5" s="0"/>
+      <c r="MD5" s="0"/>
+      <c r="ME5" s="0"/>
+      <c r="MF5" s="0"/>
+      <c r="MG5" s="0"/>
+      <c r="MH5" s="0"/>
+      <c r="MI5" s="0"/>
+      <c r="MJ5" s="0"/>
+      <c r="MK5" s="0"/>
+      <c r="ML5" s="0"/>
+      <c r="MM5" s="0"/>
+      <c r="MN5" s="0"/>
+      <c r="MO5" s="0"/>
+      <c r="MP5" s="0"/>
+      <c r="MQ5" s="0"/>
+      <c r="MR5" s="0"/>
+      <c r="MS5" s="0"/>
+      <c r="MT5" s="0"/>
+      <c r="MU5" s="0"/>
+      <c r="MV5" s="0"/>
+      <c r="MW5" s="0"/>
+      <c r="MX5" s="0"/>
+      <c r="MY5" s="0"/>
+      <c r="MZ5" s="0"/>
+      <c r="NA5" s="0"/>
+      <c r="NB5" s="0"/>
+      <c r="NC5" s="0"/>
+      <c r="ND5" s="0"/>
+      <c r="NE5" s="0"/>
+      <c r="NF5" s="0"/>
+      <c r="NG5" s="0"/>
+      <c r="NH5" s="0"/>
+      <c r="NI5" s="0"/>
+      <c r="NJ5" s="0"/>
+      <c r="NK5" s="0"/>
+      <c r="NL5" s="0"/>
+      <c r="NM5" s="0"/>
+      <c r="NN5" s="0"/>
+      <c r="NO5" s="0"/>
+      <c r="NP5" s="0"/>
+      <c r="NQ5" s="0"/>
+      <c r="NR5" s="0"/>
+      <c r="NS5" s="0"/>
+      <c r="NT5" s="0"/>
+      <c r="NU5" s="0"/>
+      <c r="NV5" s="0"/>
+      <c r="NW5" s="0"/>
+      <c r="NX5" s="0"/>
+      <c r="NY5" s="0"/>
+      <c r="NZ5" s="0"/>
+      <c r="OA5" s="0"/>
+      <c r="OB5" s="0"/>
+      <c r="OC5" s="0"/>
+      <c r="OD5" s="0"/>
+      <c r="OE5" s="0"/>
+      <c r="OF5" s="0"/>
+      <c r="OG5" s="0"/>
+      <c r="OH5" s="0"/>
+      <c r="OI5" s="0"/>
+      <c r="OJ5" s="0"/>
+      <c r="OK5" s="0"/>
+      <c r="OL5" s="0"/>
+      <c r="OM5" s="0"/>
+      <c r="ON5" s="0"/>
+      <c r="OO5" s="0"/>
+      <c r="OP5" s="0"/>
+      <c r="OQ5" s="0"/>
+      <c r="OR5" s="0"/>
+      <c r="OS5" s="0"/>
+      <c r="OT5" s="0"/>
+      <c r="OU5" s="0"/>
+      <c r="OV5" s="0"/>
+      <c r="OW5" s="0"/>
+      <c r="OX5" s="0"/>
+      <c r="OY5" s="0"/>
+      <c r="OZ5" s="0"/>
+      <c r="PA5" s="0"/>
+      <c r="PB5" s="0"/>
+      <c r="PC5" s="0"/>
+      <c r="PD5" s="0"/>
+      <c r="PE5" s="0"/>
+      <c r="PF5" s="0"/>
+      <c r="PG5" s="0"/>
+      <c r="PH5" s="0"/>
+      <c r="PI5" s="0"/>
+      <c r="PJ5" s="0"/>
+      <c r="PK5" s="0"/>
+      <c r="PL5" s="0"/>
+      <c r="PM5" s="0"/>
+      <c r="PN5" s="0"/>
+      <c r="PO5" s="0"/>
+      <c r="PP5" s="0"/>
+      <c r="PQ5" s="0"/>
+      <c r="PR5" s="0"/>
+      <c r="PS5" s="0"/>
+      <c r="PT5" s="0"/>
+      <c r="PU5" s="0"/>
+      <c r="PV5" s="0"/>
+      <c r="PW5" s="0"/>
+      <c r="PX5" s="0"/>
+      <c r="PY5" s="0"/>
+      <c r="PZ5" s="0"/>
+      <c r="QA5" s="0"/>
+      <c r="QB5" s="0"/>
+      <c r="QC5" s="0"/>
+      <c r="QD5" s="0"/>
+      <c r="QE5" s="0"/>
+      <c r="QF5" s="0"/>
+      <c r="QG5" s="0"/>
+      <c r="QH5" s="0"/>
+      <c r="QI5" s="0"/>
+      <c r="QJ5" s="0"/>
+      <c r="QK5" s="0"/>
+      <c r="QL5" s="0"/>
+      <c r="QM5" s="0"/>
+      <c r="QN5" s="0"/>
+      <c r="QO5" s="0"/>
+      <c r="QP5" s="0"/>
+      <c r="QQ5" s="0"/>
+      <c r="QR5" s="0"/>
+      <c r="QS5" s="0"/>
+      <c r="QT5" s="0"/>
+      <c r="QU5" s="0"/>
+      <c r="QV5" s="0"/>
+      <c r="QW5" s="0"/>
+      <c r="QX5" s="0"/>
+      <c r="QY5" s="0"/>
+      <c r="QZ5" s="0"/>
+      <c r="RA5" s="0"/>
+      <c r="RB5" s="0"/>
+      <c r="RC5" s="0"/>
+      <c r="RD5" s="0"/>
+      <c r="RE5" s="0"/>
+      <c r="RF5" s="0"/>
+      <c r="RG5" s="0"/>
+      <c r="RH5" s="0"/>
+      <c r="RI5" s="0"/>
+      <c r="RJ5" s="0"/>
+      <c r="RK5" s="0"/>
+      <c r="RL5" s="0"/>
+      <c r="RM5" s="0"/>
+      <c r="RN5" s="0"/>
+      <c r="RO5" s="0"/>
+      <c r="RP5" s="0"/>
+      <c r="RQ5" s="0"/>
+      <c r="RR5" s="0"/>
+      <c r="RS5" s="0"/>
+      <c r="RT5" s="0"/>
+      <c r="RU5" s="0"/>
+      <c r="RV5" s="0"/>
+      <c r="RW5" s="0"/>
+      <c r="RX5" s="0"/>
+      <c r="RY5" s="0"/>
+      <c r="RZ5" s="0"/>
+      <c r="SA5" s="0"/>
+      <c r="SB5" s="0"/>
+      <c r="SC5" s="0"/>
+      <c r="SD5" s="0"/>
+      <c r="SE5" s="0"/>
+      <c r="SF5" s="0"/>
+      <c r="SG5" s="0"/>
+      <c r="SH5" s="0"/>
+      <c r="SI5" s="0"/>
+      <c r="SJ5" s="0"/>
+      <c r="SK5" s="0"/>
+      <c r="SL5" s="0"/>
+      <c r="SM5" s="0"/>
+      <c r="SN5" s="0"/>
+      <c r="SO5" s="0"/>
+      <c r="SP5" s="0"/>
+      <c r="SQ5" s="0"/>
+      <c r="SR5" s="0"/>
+      <c r="SS5" s="0"/>
+      <c r="ST5" s="0"/>
+      <c r="SU5" s="0"/>
+      <c r="SV5" s="0"/>
+      <c r="SW5" s="0"/>
+      <c r="SX5" s="0"/>
+      <c r="SY5" s="0"/>
+      <c r="SZ5" s="0"/>
+      <c r="TA5" s="0"/>
+      <c r="TB5" s="0"/>
+      <c r="TC5" s="0"/>
+      <c r="TD5" s="0"/>
+      <c r="TE5" s="0"/>
+      <c r="TF5" s="0"/>
+      <c r="TG5" s="0"/>
+      <c r="TH5" s="0"/>
+      <c r="TI5" s="0"/>
+      <c r="TJ5" s="0"/>
+      <c r="TK5" s="0"/>
+      <c r="TL5" s="0"/>
+      <c r="TM5" s="0"/>
+      <c r="TN5" s="0"/>
+      <c r="TO5" s="0"/>
+      <c r="TP5" s="0"/>
+      <c r="TQ5" s="0"/>
+      <c r="TR5" s="0"/>
+      <c r="TS5" s="0"/>
+      <c r="TT5" s="0"/>
+      <c r="TU5" s="0"/>
+      <c r="TV5" s="0"/>
+      <c r="TW5" s="0"/>
+      <c r="TX5" s="0"/>
+      <c r="TY5" s="0"/>
+      <c r="TZ5" s="0"/>
+      <c r="UA5" s="0"/>
+      <c r="UB5" s="0"/>
+      <c r="UC5" s="0"/>
+      <c r="UD5" s="0"/>
+      <c r="UE5" s="0"/>
+      <c r="UF5" s="0"/>
+      <c r="UG5" s="0"/>
+      <c r="UH5" s="0"/>
+      <c r="UI5" s="0"/>
+      <c r="UJ5" s="0"/>
+      <c r="UK5" s="0"/>
+      <c r="UL5" s="0"/>
+      <c r="UM5" s="0"/>
+      <c r="UN5" s="0"/>
+      <c r="UO5" s="0"/>
+      <c r="UP5" s="0"/>
+      <c r="UQ5" s="0"/>
+      <c r="UR5" s="0"/>
+      <c r="US5" s="0"/>
+      <c r="UT5" s="0"/>
+      <c r="UU5" s="0"/>
+      <c r="UV5" s="0"/>
+      <c r="UW5" s="0"/>
+      <c r="UX5" s="0"/>
+      <c r="UY5" s="0"/>
+      <c r="UZ5" s="0"/>
+      <c r="VA5" s="0"/>
+      <c r="VB5" s="0"/>
+      <c r="VC5" s="0"/>
+      <c r="VD5" s="0"/>
+      <c r="VE5" s="0"/>
+      <c r="VF5" s="0"/>
+      <c r="VG5" s="0"/>
+      <c r="VH5" s="0"/>
+      <c r="VI5" s="0"/>
+      <c r="VJ5" s="0"/>
+      <c r="VK5" s="0"/>
+      <c r="VL5" s="0"/>
+      <c r="VM5" s="0"/>
+      <c r="VN5" s="0"/>
+      <c r="VO5" s="0"/>
+      <c r="VP5" s="0"/>
+      <c r="VQ5" s="0"/>
+      <c r="VR5" s="0"/>
+      <c r="VS5" s="0"/>
+      <c r="VT5" s="0"/>
+      <c r="VU5" s="0"/>
+      <c r="VV5" s="0"/>
+      <c r="VW5" s="0"/>
+      <c r="VX5" s="0"/>
+      <c r="VY5" s="0"/>
+      <c r="VZ5" s="0"/>
+      <c r="WA5" s="0"/>
+      <c r="WB5" s="0"/>
+      <c r="WC5" s="0"/>
+      <c r="WD5" s="0"/>
+      <c r="WE5" s="0"/>
+      <c r="WF5" s="0"/>
+      <c r="WG5" s="0"/>
+      <c r="WH5" s="0"/>
+      <c r="WI5" s="0"/>
+      <c r="WJ5" s="0"/>
+      <c r="WK5" s="0"/>
+      <c r="WL5" s="0"/>
+      <c r="WM5" s="0"/>
+      <c r="WN5" s="0"/>
+      <c r="WO5" s="0"/>
+      <c r="WP5" s="0"/>
+      <c r="WQ5" s="0"/>
+      <c r="WR5" s="0"/>
+      <c r="WS5" s="0"/>
+      <c r="WT5" s="0"/>
+      <c r="WU5" s="0"/>
+      <c r="WV5" s="0"/>
+      <c r="WW5" s="0"/>
+      <c r="WX5" s="0"/>
+      <c r="WY5" s="0"/>
+      <c r="WZ5" s="0"/>
+      <c r="XA5" s="0"/>
+      <c r="XB5" s="0"/>
+      <c r="XC5" s="0"/>
+      <c r="XD5" s="0"/>
+      <c r="XE5" s="0"/>
+      <c r="XF5" s="0"/>
+      <c r="XG5" s="0"/>
+      <c r="XH5" s="0"/>
+      <c r="XI5" s="0"/>
+      <c r="XJ5" s="0"/>
+      <c r="XK5" s="0"/>
+      <c r="XL5" s="0"/>
+      <c r="XM5" s="0"/>
+      <c r="XN5" s="0"/>
+      <c r="XO5" s="0"/>
+      <c r="XP5" s="0"/>
+      <c r="XQ5" s="0"/>
+      <c r="XR5" s="0"/>
+      <c r="XS5" s="0"/>
+      <c r="XT5" s="0"/>
+      <c r="XU5" s="0"/>
+      <c r="XV5" s="0"/>
+      <c r="XW5" s="0"/>
+      <c r="XX5" s="0"/>
+      <c r="XY5" s="0"/>
+      <c r="XZ5" s="0"/>
+      <c r="YA5" s="0"/>
+      <c r="YB5" s="0"/>
+      <c r="YC5" s="0"/>
+      <c r="YD5" s="0"/>
+      <c r="YE5" s="0"/>
+      <c r="YF5" s="0"/>
+      <c r="YG5" s="0"/>
+      <c r="YH5" s="0"/>
+      <c r="YI5" s="0"/>
+      <c r="YJ5" s="0"/>
+      <c r="YK5" s="0"/>
+      <c r="YL5" s="0"/>
+      <c r="YM5" s="0"/>
+      <c r="YN5" s="0"/>
+      <c r="YO5" s="0"/>
+      <c r="YP5" s="0"/>
+      <c r="YQ5" s="0"/>
+      <c r="YR5" s="0"/>
+      <c r="YS5" s="0"/>
+      <c r="YT5" s="0"/>
+      <c r="YU5" s="0"/>
+      <c r="YV5" s="0"/>
+      <c r="YW5" s="0"/>
+      <c r="YX5" s="0"/>
+      <c r="YY5" s="0"/>
+      <c r="YZ5" s="0"/>
+      <c r="ZA5" s="0"/>
+      <c r="ZB5" s="0"/>
+      <c r="ZC5" s="0"/>
+      <c r="ZD5" s="0"/>
+      <c r="ZE5" s="0"/>
+      <c r="ZF5" s="0"/>
+      <c r="ZG5" s="0"/>
+      <c r="ZH5" s="0"/>
+      <c r="ZI5" s="0"/>
+      <c r="ZJ5" s="0"/>
+      <c r="ZK5" s="0"/>
+      <c r="ZL5" s="0"/>
+      <c r="ZM5" s="0"/>
+      <c r="ZN5" s="0"/>
+      <c r="ZO5" s="0"/>
+      <c r="ZP5" s="0"/>
+      <c r="ZQ5" s="0"/>
+      <c r="ZR5" s="0"/>
+      <c r="ZS5" s="0"/>
+      <c r="ZT5" s="0"/>
+      <c r="ZU5" s="0"/>
+      <c r="ZV5" s="0"/>
+      <c r="ZW5" s="0"/>
+      <c r="ZX5" s="0"/>
+      <c r="ZY5" s="0"/>
+      <c r="ZZ5" s="0"/>
+      <c r="AAA5" s="0"/>
+      <c r="AAB5" s="0"/>
+      <c r="AAC5" s="0"/>
+      <c r="AAD5" s="0"/>
+      <c r="AAE5" s="0"/>
+      <c r="AAF5" s="0"/>
+      <c r="AAG5" s="0"/>
+      <c r="AAH5" s="0"/>
+      <c r="AAI5" s="0"/>
+      <c r="AAJ5" s="0"/>
+      <c r="AAK5" s="0"/>
+      <c r="AAL5" s="0"/>
+      <c r="AAM5" s="0"/>
+      <c r="AAN5" s="0"/>
+      <c r="AAO5" s="0"/>
+      <c r="AAP5" s="0"/>
+      <c r="AAQ5" s="0"/>
+      <c r="AAR5" s="0"/>
+      <c r="AAS5" s="0"/>
+      <c r="AAT5" s="0"/>
+      <c r="AAU5" s="0"/>
+      <c r="AAV5" s="0"/>
+      <c r="AAW5" s="0"/>
+      <c r="AAX5" s="0"/>
+      <c r="AAY5" s="0"/>
+      <c r="AAZ5" s="0"/>
+      <c r="ABA5" s="0"/>
+      <c r="ABB5" s="0"/>
+      <c r="ABC5" s="0"/>
+      <c r="ABD5" s="0"/>
+      <c r="ABE5" s="0"/>
+      <c r="ABF5" s="0"/>
+      <c r="ABG5" s="0"/>
+      <c r="ABH5" s="0"/>
+      <c r="ABI5" s="0"/>
+      <c r="ABJ5" s="0"/>
+      <c r="ABK5" s="0"/>
+      <c r="ABL5" s="0"/>
+      <c r="ABM5" s="0"/>
+      <c r="ABN5" s="0"/>
+      <c r="ABO5" s="0"/>
+      <c r="ABP5" s="0"/>
+      <c r="ABQ5" s="0"/>
+      <c r="ABR5" s="0"/>
+      <c r="ABS5" s="0"/>
+      <c r="ABT5" s="0"/>
+      <c r="ABU5" s="0"/>
+      <c r="ABV5" s="0"/>
+      <c r="ABW5" s="0"/>
+      <c r="ABX5" s="0"/>
+      <c r="ABY5" s="0"/>
+      <c r="ABZ5" s="0"/>
+      <c r="ACA5" s="0"/>
+      <c r="ACB5" s="0"/>
+      <c r="ACC5" s="0"/>
+      <c r="ACD5" s="0"/>
+      <c r="ACE5" s="0"/>
+      <c r="ACF5" s="0"/>
+      <c r="ACG5" s="0"/>
+      <c r="ACH5" s="0"/>
+      <c r="ACI5" s="0"/>
+      <c r="ACJ5" s="0"/>
+      <c r="ACK5" s="0"/>
+      <c r="ACL5" s="0"/>
+      <c r="ACM5" s="0"/>
+      <c r="ACN5" s="0"/>
+      <c r="ACO5" s="0"/>
+      <c r="ACP5" s="0"/>
+      <c r="ACQ5" s="0"/>
+      <c r="ACR5" s="0"/>
+      <c r="ACS5" s="0"/>
+      <c r="ACT5" s="0"/>
+      <c r="ACU5" s="0"/>
+      <c r="ACV5" s="0"/>
+      <c r="ACW5" s="0"/>
+      <c r="ACX5" s="0"/>
+      <c r="ACY5" s="0"/>
+      <c r="ACZ5" s="0"/>
+      <c r="ADA5" s="0"/>
+      <c r="ADB5" s="0"/>
+      <c r="ADC5" s="0"/>
+      <c r="ADD5" s="0"/>
+      <c r="ADE5" s="0"/>
+      <c r="ADF5" s="0"/>
+      <c r="ADG5" s="0"/>
+      <c r="ADH5" s="0"/>
+      <c r="ADI5" s="0"/>
+      <c r="ADJ5" s="0"/>
+      <c r="ADK5" s="0"/>
+      <c r="ADL5" s="0"/>
+      <c r="ADM5" s="0"/>
+      <c r="ADN5" s="0"/>
+      <c r="ADO5" s="0"/>
+      <c r="ADP5" s="0"/>
+      <c r="ADQ5" s="0"/>
+      <c r="ADR5" s="0"/>
+      <c r="ADS5" s="0"/>
+      <c r="ADT5" s="0"/>
+      <c r="ADU5" s="0"/>
+      <c r="ADV5" s="0"/>
+      <c r="ADW5" s="0"/>
+      <c r="ADX5" s="0"/>
+      <c r="ADY5" s="0"/>
+      <c r="ADZ5" s="0"/>
+      <c r="AEA5" s="0"/>
+      <c r="AEB5" s="0"/>
+      <c r="AEC5" s="0"/>
+      <c r="AED5" s="0"/>
+      <c r="AEE5" s="0"/>
+      <c r="AEF5" s="0"/>
+      <c r="AEG5" s="0"/>
+      <c r="AEH5" s="0"/>
+      <c r="AEI5" s="0"/>
+      <c r="AEJ5" s="0"/>
+      <c r="AEK5" s="0"/>
+      <c r="AEL5" s="0"/>
+      <c r="AEM5" s="0"/>
+      <c r="AEN5" s="0"/>
+      <c r="AEO5" s="0"/>
+      <c r="AEP5" s="0"/>
+      <c r="AEQ5" s="0"/>
+      <c r="AER5" s="0"/>
+      <c r="AES5" s="0"/>
+      <c r="AET5" s="0"/>
+      <c r="AEU5" s="0"/>
+      <c r="AEV5" s="0"/>
+      <c r="AEW5" s="0"/>
+      <c r="AEX5" s="0"/>
+      <c r="AEY5" s="0"/>
+      <c r="AEZ5" s="0"/>
+      <c r="AFA5" s="0"/>
+      <c r="AFB5" s="0"/>
+      <c r="AFC5" s="0"/>
+      <c r="AFD5" s="0"/>
+      <c r="AFE5" s="0"/>
+      <c r="AFF5" s="0"/>
+      <c r="AFG5" s="0"/>
+      <c r="AFH5" s="0"/>
+      <c r="AFI5" s="0"/>
+      <c r="AFJ5" s="0"/>
+      <c r="AFK5" s="0"/>
+      <c r="AFL5" s="0"/>
+      <c r="AFM5" s="0"/>
+      <c r="AFN5" s="0"/>
+      <c r="AFO5" s="0"/>
+      <c r="AFP5" s="0"/>
+      <c r="AFQ5" s="0"/>
+      <c r="AFR5" s="0"/>
+      <c r="AFS5" s="0"/>
+      <c r="AFT5" s="0"/>
+      <c r="AFU5" s="0"/>
+      <c r="AFV5" s="0"/>
+      <c r="AFW5" s="0"/>
+      <c r="AFX5" s="0"/>
+      <c r="AFY5" s="0"/>
+      <c r="AFZ5" s="0"/>
+      <c r="AGA5" s="0"/>
+      <c r="AGB5" s="0"/>
+      <c r="AGC5" s="0"/>
+      <c r="AGD5" s="0"/>
+      <c r="AGE5" s="0"/>
+      <c r="AGF5" s="0"/>
+      <c r="AGG5" s="0"/>
+      <c r="AGH5" s="0"/>
+      <c r="AGI5" s="0"/>
+      <c r="AGJ5" s="0"/>
+      <c r="AGK5" s="0"/>
+      <c r="AGL5" s="0"/>
+      <c r="AGM5" s="0"/>
+      <c r="AGN5" s="0"/>
+      <c r="AGO5" s="0"/>
+      <c r="AGP5" s="0"/>
+      <c r="AGQ5" s="0"/>
+      <c r="AGR5" s="0"/>
+      <c r="AGS5" s="0"/>
+      <c r="AGT5" s="0"/>
+      <c r="AGU5" s="0"/>
+      <c r="AGV5" s="0"/>
+      <c r="AGW5" s="0"/>
+      <c r="AGX5" s="0"/>
+      <c r="AGY5" s="0"/>
+      <c r="AGZ5" s="0"/>
+      <c r="AHA5" s="0"/>
+      <c r="AHB5" s="0"/>
+      <c r="AHC5" s="0"/>
+      <c r="AHD5" s="0"/>
+      <c r="AHE5" s="0"/>
+      <c r="AHF5" s="0"/>
+      <c r="AHG5" s="0"/>
+      <c r="AHH5" s="0"/>
+      <c r="AHI5" s="0"/>
+      <c r="AHJ5" s="0"/>
+      <c r="AHK5" s="0"/>
+      <c r="AHL5" s="0"/>
+      <c r="AHM5" s="0"/>
+      <c r="AHN5" s="0"/>
+      <c r="AHO5" s="0"/>
+      <c r="AHP5" s="0"/>
+      <c r="AHQ5" s="0"/>
+      <c r="AHR5" s="0"/>
+      <c r="AHS5" s="0"/>
+      <c r="AHT5" s="0"/>
+      <c r="AHU5" s="0"/>
+      <c r="AHV5" s="0"/>
+      <c r="AHW5" s="0"/>
+      <c r="AHX5" s="0"/>
+      <c r="AHY5" s="0"/>
+      <c r="AHZ5" s="0"/>
+      <c r="AIA5" s="0"/>
+      <c r="AIB5" s="0"/>
+      <c r="AIC5" s="0"/>
+      <c r="AID5" s="0"/>
+      <c r="AIE5" s="0"/>
+      <c r="AIF5" s="0"/>
+      <c r="AIG5" s="0"/>
+      <c r="AIH5" s="0"/>
+      <c r="AII5" s="0"/>
+      <c r="AIJ5" s="0"/>
+      <c r="AIK5" s="0"/>
+      <c r="AIL5" s="0"/>
+      <c r="AIM5" s="0"/>
+      <c r="AIN5" s="0"/>
+      <c r="AIO5" s="0"/>
+      <c r="AIP5" s="0"/>
+      <c r="AIQ5" s="0"/>
+      <c r="AIR5" s="0"/>
+      <c r="AIS5" s="0"/>
+      <c r="AIT5" s="0"/>
+      <c r="AIU5" s="0"/>
+      <c r="AIV5" s="0"/>
+      <c r="AIW5" s="0"/>
+      <c r="AIX5" s="0"/>
+      <c r="AIY5" s="0"/>
+      <c r="AIZ5" s="0"/>
+      <c r="AJA5" s="0"/>
+      <c r="AJB5" s="0"/>
+      <c r="AJC5" s="0"/>
+      <c r="AJD5" s="0"/>
+      <c r="AJE5" s="0"/>
+      <c r="AJF5" s="0"/>
+      <c r="AJG5" s="0"/>
+      <c r="AJH5" s="0"/>
+      <c r="AJI5" s="0"/>
+      <c r="AJJ5" s="0"/>
+      <c r="AJK5" s="0"/>
+      <c r="AJL5" s="0"/>
+      <c r="AJM5" s="0"/>
+      <c r="AJN5" s="0"/>
+      <c r="AJO5" s="0"/>
+      <c r="AJP5" s="0"/>
+      <c r="AJQ5" s="0"/>
+      <c r="AJR5" s="0"/>
+      <c r="AJS5" s="0"/>
+      <c r="AJT5" s="0"/>
+      <c r="AJU5" s="0"/>
+      <c r="AJV5" s="0"/>
+      <c r="AJW5" s="0"/>
+      <c r="AJX5" s="0"/>
+      <c r="AJY5" s="0"/>
+      <c r="AJZ5" s="0"/>
+      <c r="AKA5" s="0"/>
+      <c r="AKB5" s="0"/>
+      <c r="AKC5" s="0"/>
+      <c r="AKD5" s="0"/>
+      <c r="AKE5" s="0"/>
+      <c r="AKF5" s="0"/>
+      <c r="AKG5" s="0"/>
+      <c r="AKH5" s="0"/>
+      <c r="AKI5" s="0"/>
+      <c r="AKJ5" s="0"/>
+      <c r="AKK5" s="0"/>
+      <c r="AKL5" s="0"/>
+      <c r="AKM5" s="0"/>
+      <c r="AKN5" s="0"/>
+      <c r="AKO5" s="0"/>
+      <c r="AKP5" s="0"/>
+      <c r="AKQ5" s="0"/>
+      <c r="AKR5" s="0"/>
+      <c r="AKS5" s="0"/>
+      <c r="AKT5" s="0"/>
+      <c r="AKU5" s="0"/>
+      <c r="AKV5" s="0"/>
+      <c r="AKW5" s="0"/>
+      <c r="AKX5" s="0"/>
+      <c r="AKY5" s="0"/>
+      <c r="AKZ5" s="0"/>
+      <c r="ALA5" s="0"/>
+      <c r="ALB5" s="0"/>
+      <c r="ALC5" s="0"/>
+      <c r="ALD5" s="0"/>
+      <c r="ALE5" s="0"/>
+      <c r="ALF5" s="0"/>
+      <c r="ALG5" s="0"/>
+      <c r="ALH5" s="0"/>
+      <c r="ALI5" s="0"/>
+      <c r="ALJ5" s="0"/>
+      <c r="ALK5" s="0"/>
+      <c r="ALL5" s="0"/>
+      <c r="ALM5" s="0"/>
+      <c r="ALN5" s="0"/>
+      <c r="ALO5" s="0"/>
+      <c r="ALP5" s="0"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
+      <c r="AMA5" s="0"/>
+      <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2367,19 +3215,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2387,41 +3235,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="IX3" s="0"/>
       <c r="IY3" s="0"/>
@@ -3193,16 +4041,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="IX4" s="0"/>
       <c r="IY4" s="0"/>
@@ -3972,6 +4820,787 @@
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
     </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="IX5" s="0"/>
+      <c r="IY5" s="0"/>
+      <c r="IZ5" s="0"/>
+      <c r="JA5" s="0"/>
+      <c r="JB5" s="0"/>
+      <c r="JC5" s="0"/>
+      <c r="JD5" s="0"/>
+      <c r="JE5" s="0"/>
+      <c r="JF5" s="0"/>
+      <c r="JG5" s="0"/>
+      <c r="JH5" s="0"/>
+      <c r="JI5" s="0"/>
+      <c r="JJ5" s="0"/>
+      <c r="JK5" s="0"/>
+      <c r="JL5" s="0"/>
+      <c r="JM5" s="0"/>
+      <c r="JN5" s="0"/>
+      <c r="JO5" s="0"/>
+      <c r="JP5" s="0"/>
+      <c r="JQ5" s="0"/>
+      <c r="JR5" s="0"/>
+      <c r="JS5" s="0"/>
+      <c r="JT5" s="0"/>
+      <c r="JU5" s="0"/>
+      <c r="JV5" s="0"/>
+      <c r="JW5" s="0"/>
+      <c r="JX5" s="0"/>
+      <c r="JY5" s="0"/>
+      <c r="JZ5" s="0"/>
+      <c r="KA5" s="0"/>
+      <c r="KB5" s="0"/>
+      <c r="KC5" s="0"/>
+      <c r="KD5" s="0"/>
+      <c r="KE5" s="0"/>
+      <c r="KF5" s="0"/>
+      <c r="KG5" s="0"/>
+      <c r="KH5" s="0"/>
+      <c r="KI5" s="0"/>
+      <c r="KJ5" s="0"/>
+      <c r="KK5" s="0"/>
+      <c r="KL5" s="0"/>
+      <c r="KM5" s="0"/>
+      <c r="KN5" s="0"/>
+      <c r="KO5" s="0"/>
+      <c r="KP5" s="0"/>
+      <c r="KQ5" s="0"/>
+      <c r="KR5" s="0"/>
+      <c r="KS5" s="0"/>
+      <c r="KT5" s="0"/>
+      <c r="KU5" s="0"/>
+      <c r="KV5" s="0"/>
+      <c r="KW5" s="0"/>
+      <c r="KX5" s="0"/>
+      <c r="KY5" s="0"/>
+      <c r="KZ5" s="0"/>
+      <c r="LA5" s="0"/>
+      <c r="LB5" s="0"/>
+      <c r="LC5" s="0"/>
+      <c r="LD5" s="0"/>
+      <c r="LE5" s="0"/>
+      <c r="LF5" s="0"/>
+      <c r="LG5" s="0"/>
+      <c r="LH5" s="0"/>
+      <c r="LI5" s="0"/>
+      <c r="LJ5" s="0"/>
+      <c r="LK5" s="0"/>
+      <c r="LL5" s="0"/>
+      <c r="LM5" s="0"/>
+      <c r="LN5" s="0"/>
+      <c r="LO5" s="0"/>
+      <c r="LP5" s="0"/>
+      <c r="LQ5" s="0"/>
+      <c r="LR5" s="0"/>
+      <c r="LS5" s="0"/>
+      <c r="LT5" s="0"/>
+      <c r="LU5" s="0"/>
+      <c r="LV5" s="0"/>
+      <c r="LW5" s="0"/>
+      <c r="LX5" s="0"/>
+      <c r="LY5" s="0"/>
+      <c r="LZ5" s="0"/>
+      <c r="MA5" s="0"/>
+      <c r="MB5" s="0"/>
+      <c r="MC5" s="0"/>
+      <c r="MD5" s="0"/>
+      <c r="ME5" s="0"/>
+      <c r="MF5" s="0"/>
+      <c r="MG5" s="0"/>
+      <c r="MH5" s="0"/>
+      <c r="MI5" s="0"/>
+      <c r="MJ5" s="0"/>
+      <c r="MK5" s="0"/>
+      <c r="ML5" s="0"/>
+      <c r="MM5" s="0"/>
+      <c r="MN5" s="0"/>
+      <c r="MO5" s="0"/>
+      <c r="MP5" s="0"/>
+      <c r="MQ5" s="0"/>
+      <c r="MR5" s="0"/>
+      <c r="MS5" s="0"/>
+      <c r="MT5" s="0"/>
+      <c r="MU5" s="0"/>
+      <c r="MV5" s="0"/>
+      <c r="MW5" s="0"/>
+      <c r="MX5" s="0"/>
+      <c r="MY5" s="0"/>
+      <c r="MZ5" s="0"/>
+      <c r="NA5" s="0"/>
+      <c r="NB5" s="0"/>
+      <c r="NC5" s="0"/>
+      <c r="ND5" s="0"/>
+      <c r="NE5" s="0"/>
+      <c r="NF5" s="0"/>
+      <c r="NG5" s="0"/>
+      <c r="NH5" s="0"/>
+      <c r="NI5" s="0"/>
+      <c r="NJ5" s="0"/>
+      <c r="NK5" s="0"/>
+      <c r="NL5" s="0"/>
+      <c r="NM5" s="0"/>
+      <c r="NN5" s="0"/>
+      <c r="NO5" s="0"/>
+      <c r="NP5" s="0"/>
+      <c r="NQ5" s="0"/>
+      <c r="NR5" s="0"/>
+      <c r="NS5" s="0"/>
+      <c r="NT5" s="0"/>
+      <c r="NU5" s="0"/>
+      <c r="NV5" s="0"/>
+      <c r="NW5" s="0"/>
+      <c r="NX5" s="0"/>
+      <c r="NY5" s="0"/>
+      <c r="NZ5" s="0"/>
+      <c r="OA5" s="0"/>
+      <c r="OB5" s="0"/>
+      <c r="OC5" s="0"/>
+      <c r="OD5" s="0"/>
+      <c r="OE5" s="0"/>
+      <c r="OF5" s="0"/>
+      <c r="OG5" s="0"/>
+      <c r="OH5" s="0"/>
+      <c r="OI5" s="0"/>
+      <c r="OJ5" s="0"/>
+      <c r="OK5" s="0"/>
+      <c r="OL5" s="0"/>
+      <c r="OM5" s="0"/>
+      <c r="ON5" s="0"/>
+      <c r="OO5" s="0"/>
+      <c r="OP5" s="0"/>
+      <c r="OQ5" s="0"/>
+      <c r="OR5" s="0"/>
+      <c r="OS5" s="0"/>
+      <c r="OT5" s="0"/>
+      <c r="OU5" s="0"/>
+      <c r="OV5" s="0"/>
+      <c r="OW5" s="0"/>
+      <c r="OX5" s="0"/>
+      <c r="OY5" s="0"/>
+      <c r="OZ5" s="0"/>
+      <c r="PA5" s="0"/>
+      <c r="PB5" s="0"/>
+      <c r="PC5" s="0"/>
+      <c r="PD5" s="0"/>
+      <c r="PE5" s="0"/>
+      <c r="PF5" s="0"/>
+      <c r="PG5" s="0"/>
+      <c r="PH5" s="0"/>
+      <c r="PI5" s="0"/>
+      <c r="PJ5" s="0"/>
+      <c r="PK5" s="0"/>
+      <c r="PL5" s="0"/>
+      <c r="PM5" s="0"/>
+      <c r="PN5" s="0"/>
+      <c r="PO5" s="0"/>
+      <c r="PP5" s="0"/>
+      <c r="PQ5" s="0"/>
+      <c r="PR5" s="0"/>
+      <c r="PS5" s="0"/>
+      <c r="PT5" s="0"/>
+      <c r="PU5" s="0"/>
+      <c r="PV5" s="0"/>
+      <c r="PW5" s="0"/>
+      <c r="PX5" s="0"/>
+      <c r="PY5" s="0"/>
+      <c r="PZ5" s="0"/>
+      <c r="QA5" s="0"/>
+      <c r="QB5" s="0"/>
+      <c r="QC5" s="0"/>
+      <c r="QD5" s="0"/>
+      <c r="QE5" s="0"/>
+      <c r="QF5" s="0"/>
+      <c r="QG5" s="0"/>
+      <c r="QH5" s="0"/>
+      <c r="QI5" s="0"/>
+      <c r="QJ5" s="0"/>
+      <c r="QK5" s="0"/>
+      <c r="QL5" s="0"/>
+      <c r="QM5" s="0"/>
+      <c r="QN5" s="0"/>
+      <c r="QO5" s="0"/>
+      <c r="QP5" s="0"/>
+      <c r="QQ5" s="0"/>
+      <c r="QR5" s="0"/>
+      <c r="QS5" s="0"/>
+      <c r="QT5" s="0"/>
+      <c r="QU5" s="0"/>
+      <c r="QV5" s="0"/>
+      <c r="QW5" s="0"/>
+      <c r="QX5" s="0"/>
+      <c r="QY5" s="0"/>
+      <c r="QZ5" s="0"/>
+      <c r="RA5" s="0"/>
+      <c r="RB5" s="0"/>
+      <c r="RC5" s="0"/>
+      <c r="RD5" s="0"/>
+      <c r="RE5" s="0"/>
+      <c r="RF5" s="0"/>
+      <c r="RG5" s="0"/>
+      <c r="RH5" s="0"/>
+      <c r="RI5" s="0"/>
+      <c r="RJ5" s="0"/>
+      <c r="RK5" s="0"/>
+      <c r="RL5" s="0"/>
+      <c r="RM5" s="0"/>
+      <c r="RN5" s="0"/>
+      <c r="RO5" s="0"/>
+      <c r="RP5" s="0"/>
+      <c r="RQ5" s="0"/>
+      <c r="RR5" s="0"/>
+      <c r="RS5" s="0"/>
+      <c r="RT5" s="0"/>
+      <c r="RU5" s="0"/>
+      <c r="RV5" s="0"/>
+      <c r="RW5" s="0"/>
+      <c r="RX5" s="0"/>
+      <c r="RY5" s="0"/>
+      <c r="RZ5" s="0"/>
+      <c r="SA5" s="0"/>
+      <c r="SB5" s="0"/>
+      <c r="SC5" s="0"/>
+      <c r="SD5" s="0"/>
+      <c r="SE5" s="0"/>
+      <c r="SF5" s="0"/>
+      <c r="SG5" s="0"/>
+      <c r="SH5" s="0"/>
+      <c r="SI5" s="0"/>
+      <c r="SJ5" s="0"/>
+      <c r="SK5" s="0"/>
+      <c r="SL5" s="0"/>
+      <c r="SM5" s="0"/>
+      <c r="SN5" s="0"/>
+      <c r="SO5" s="0"/>
+      <c r="SP5" s="0"/>
+      <c r="SQ5" s="0"/>
+      <c r="SR5" s="0"/>
+      <c r="SS5" s="0"/>
+      <c r="ST5" s="0"/>
+      <c r="SU5" s="0"/>
+      <c r="SV5" s="0"/>
+      <c r="SW5" s="0"/>
+      <c r="SX5" s="0"/>
+      <c r="SY5" s="0"/>
+      <c r="SZ5" s="0"/>
+      <c r="TA5" s="0"/>
+      <c r="TB5" s="0"/>
+      <c r="TC5" s="0"/>
+      <c r="TD5" s="0"/>
+      <c r="TE5" s="0"/>
+      <c r="TF5" s="0"/>
+      <c r="TG5" s="0"/>
+      <c r="TH5" s="0"/>
+      <c r="TI5" s="0"/>
+      <c r="TJ5" s="0"/>
+      <c r="TK5" s="0"/>
+      <c r="TL5" s="0"/>
+      <c r="TM5" s="0"/>
+      <c r="TN5" s="0"/>
+      <c r="TO5" s="0"/>
+      <c r="TP5" s="0"/>
+      <c r="TQ5" s="0"/>
+      <c r="TR5" s="0"/>
+      <c r="TS5" s="0"/>
+      <c r="TT5" s="0"/>
+      <c r="TU5" s="0"/>
+      <c r="TV5" s="0"/>
+      <c r="TW5" s="0"/>
+      <c r="TX5" s="0"/>
+      <c r="TY5" s="0"/>
+      <c r="TZ5" s="0"/>
+      <c r="UA5" s="0"/>
+      <c r="UB5" s="0"/>
+      <c r="UC5" s="0"/>
+      <c r="UD5" s="0"/>
+      <c r="UE5" s="0"/>
+      <c r="UF5" s="0"/>
+      <c r="UG5" s="0"/>
+      <c r="UH5" s="0"/>
+      <c r="UI5" s="0"/>
+      <c r="UJ5" s="0"/>
+      <c r="UK5" s="0"/>
+      <c r="UL5" s="0"/>
+      <c r="UM5" s="0"/>
+      <c r="UN5" s="0"/>
+      <c r="UO5" s="0"/>
+      <c r="UP5" s="0"/>
+      <c r="UQ5" s="0"/>
+      <c r="UR5" s="0"/>
+      <c r="US5" s="0"/>
+      <c r="UT5" s="0"/>
+      <c r="UU5" s="0"/>
+      <c r="UV5" s="0"/>
+      <c r="UW5" s="0"/>
+      <c r="UX5" s="0"/>
+      <c r="UY5" s="0"/>
+      <c r="UZ5" s="0"/>
+      <c r="VA5" s="0"/>
+      <c r="VB5" s="0"/>
+      <c r="VC5" s="0"/>
+      <c r="VD5" s="0"/>
+      <c r="VE5" s="0"/>
+      <c r="VF5" s="0"/>
+      <c r="VG5" s="0"/>
+      <c r="VH5" s="0"/>
+      <c r="VI5" s="0"/>
+      <c r="VJ5" s="0"/>
+      <c r="VK5" s="0"/>
+      <c r="VL5" s="0"/>
+      <c r="VM5" s="0"/>
+      <c r="VN5" s="0"/>
+      <c r="VO5" s="0"/>
+      <c r="VP5" s="0"/>
+      <c r="VQ5" s="0"/>
+      <c r="VR5" s="0"/>
+      <c r="VS5" s="0"/>
+      <c r="VT5" s="0"/>
+      <c r="VU5" s="0"/>
+      <c r="VV5" s="0"/>
+      <c r="VW5" s="0"/>
+      <c r="VX5" s="0"/>
+      <c r="VY5" s="0"/>
+      <c r="VZ5" s="0"/>
+      <c r="WA5" s="0"/>
+      <c r="WB5" s="0"/>
+      <c r="WC5" s="0"/>
+      <c r="WD5" s="0"/>
+      <c r="WE5" s="0"/>
+      <c r="WF5" s="0"/>
+      <c r="WG5" s="0"/>
+      <c r="WH5" s="0"/>
+      <c r="WI5" s="0"/>
+      <c r="WJ5" s="0"/>
+      <c r="WK5" s="0"/>
+      <c r="WL5" s="0"/>
+      <c r="WM5" s="0"/>
+      <c r="WN5" s="0"/>
+      <c r="WO5" s="0"/>
+      <c r="WP5" s="0"/>
+      <c r="WQ5" s="0"/>
+      <c r="WR5" s="0"/>
+      <c r="WS5" s="0"/>
+      <c r="WT5" s="0"/>
+      <c r="WU5" s="0"/>
+      <c r="WV5" s="0"/>
+      <c r="WW5" s="0"/>
+      <c r="WX5" s="0"/>
+      <c r="WY5" s="0"/>
+      <c r="WZ5" s="0"/>
+      <c r="XA5" s="0"/>
+      <c r="XB5" s="0"/>
+      <c r="XC5" s="0"/>
+      <c r="XD5" s="0"/>
+      <c r="XE5" s="0"/>
+      <c r="XF5" s="0"/>
+      <c r="XG5" s="0"/>
+      <c r="XH5" s="0"/>
+      <c r="XI5" s="0"/>
+      <c r="XJ5" s="0"/>
+      <c r="XK5" s="0"/>
+      <c r="XL5" s="0"/>
+      <c r="XM5" s="0"/>
+      <c r="XN5" s="0"/>
+      <c r="XO5" s="0"/>
+      <c r="XP5" s="0"/>
+      <c r="XQ5" s="0"/>
+      <c r="XR5" s="0"/>
+      <c r="XS5" s="0"/>
+      <c r="XT5" s="0"/>
+      <c r="XU5" s="0"/>
+      <c r="XV5" s="0"/>
+      <c r="XW5" s="0"/>
+      <c r="XX5" s="0"/>
+      <c r="XY5" s="0"/>
+      <c r="XZ5" s="0"/>
+      <c r="YA5" s="0"/>
+      <c r="YB5" s="0"/>
+      <c r="YC5" s="0"/>
+      <c r="YD5" s="0"/>
+      <c r="YE5" s="0"/>
+      <c r="YF5" s="0"/>
+      <c r="YG5" s="0"/>
+      <c r="YH5" s="0"/>
+      <c r="YI5" s="0"/>
+      <c r="YJ5" s="0"/>
+      <c r="YK5" s="0"/>
+      <c r="YL5" s="0"/>
+      <c r="YM5" s="0"/>
+      <c r="YN5" s="0"/>
+      <c r="YO5" s="0"/>
+      <c r="YP5" s="0"/>
+      <c r="YQ5" s="0"/>
+      <c r="YR5" s="0"/>
+      <c r="YS5" s="0"/>
+      <c r="YT5" s="0"/>
+      <c r="YU5" s="0"/>
+      <c r="YV5" s="0"/>
+      <c r="YW5" s="0"/>
+      <c r="YX5" s="0"/>
+      <c r="YY5" s="0"/>
+      <c r="YZ5" s="0"/>
+      <c r="ZA5" s="0"/>
+      <c r="ZB5" s="0"/>
+      <c r="ZC5" s="0"/>
+      <c r="ZD5" s="0"/>
+      <c r="ZE5" s="0"/>
+      <c r="ZF5" s="0"/>
+      <c r="ZG5" s="0"/>
+      <c r="ZH5" s="0"/>
+      <c r="ZI5" s="0"/>
+      <c r="ZJ5" s="0"/>
+      <c r="ZK5" s="0"/>
+      <c r="ZL5" s="0"/>
+      <c r="ZM5" s="0"/>
+      <c r="ZN5" s="0"/>
+      <c r="ZO5" s="0"/>
+      <c r="ZP5" s="0"/>
+      <c r="ZQ5" s="0"/>
+      <c r="ZR5" s="0"/>
+      <c r="ZS5" s="0"/>
+      <c r="ZT5" s="0"/>
+      <c r="ZU5" s="0"/>
+      <c r="ZV5" s="0"/>
+      <c r="ZW5" s="0"/>
+      <c r="ZX5" s="0"/>
+      <c r="ZY5" s="0"/>
+      <c r="ZZ5" s="0"/>
+      <c r="AAA5" s="0"/>
+      <c r="AAB5" s="0"/>
+      <c r="AAC5" s="0"/>
+      <c r="AAD5" s="0"/>
+      <c r="AAE5" s="0"/>
+      <c r="AAF5" s="0"/>
+      <c r="AAG5" s="0"/>
+      <c r="AAH5" s="0"/>
+      <c r="AAI5" s="0"/>
+      <c r="AAJ5" s="0"/>
+      <c r="AAK5" s="0"/>
+      <c r="AAL5" s="0"/>
+      <c r="AAM5" s="0"/>
+      <c r="AAN5" s="0"/>
+      <c r="AAO5" s="0"/>
+      <c r="AAP5" s="0"/>
+      <c r="AAQ5" s="0"/>
+      <c r="AAR5" s="0"/>
+      <c r="AAS5" s="0"/>
+      <c r="AAT5" s="0"/>
+      <c r="AAU5" s="0"/>
+      <c r="AAV5" s="0"/>
+      <c r="AAW5" s="0"/>
+      <c r="AAX5" s="0"/>
+      <c r="AAY5" s="0"/>
+      <c r="AAZ5" s="0"/>
+      <c r="ABA5" s="0"/>
+      <c r="ABB5" s="0"/>
+      <c r="ABC5" s="0"/>
+      <c r="ABD5" s="0"/>
+      <c r="ABE5" s="0"/>
+      <c r="ABF5" s="0"/>
+      <c r="ABG5" s="0"/>
+      <c r="ABH5" s="0"/>
+      <c r="ABI5" s="0"/>
+      <c r="ABJ5" s="0"/>
+      <c r="ABK5" s="0"/>
+      <c r="ABL5" s="0"/>
+      <c r="ABM5" s="0"/>
+      <c r="ABN5" s="0"/>
+      <c r="ABO5" s="0"/>
+      <c r="ABP5" s="0"/>
+      <c r="ABQ5" s="0"/>
+      <c r="ABR5" s="0"/>
+      <c r="ABS5" s="0"/>
+      <c r="ABT5" s="0"/>
+      <c r="ABU5" s="0"/>
+      <c r="ABV5" s="0"/>
+      <c r="ABW5" s="0"/>
+      <c r="ABX5" s="0"/>
+      <c r="ABY5" s="0"/>
+      <c r="ABZ5" s="0"/>
+      <c r="ACA5" s="0"/>
+      <c r="ACB5" s="0"/>
+      <c r="ACC5" s="0"/>
+      <c r="ACD5" s="0"/>
+      <c r="ACE5" s="0"/>
+      <c r="ACF5" s="0"/>
+      <c r="ACG5" s="0"/>
+      <c r="ACH5" s="0"/>
+      <c r="ACI5" s="0"/>
+      <c r="ACJ5" s="0"/>
+      <c r="ACK5" s="0"/>
+      <c r="ACL5" s="0"/>
+      <c r="ACM5" s="0"/>
+      <c r="ACN5" s="0"/>
+      <c r="ACO5" s="0"/>
+      <c r="ACP5" s="0"/>
+      <c r="ACQ5" s="0"/>
+      <c r="ACR5" s="0"/>
+      <c r="ACS5" s="0"/>
+      <c r="ACT5" s="0"/>
+      <c r="ACU5" s="0"/>
+      <c r="ACV5" s="0"/>
+      <c r="ACW5" s="0"/>
+      <c r="ACX5" s="0"/>
+      <c r="ACY5" s="0"/>
+      <c r="ACZ5" s="0"/>
+      <c r="ADA5" s="0"/>
+      <c r="ADB5" s="0"/>
+      <c r="ADC5" s="0"/>
+      <c r="ADD5" s="0"/>
+      <c r="ADE5" s="0"/>
+      <c r="ADF5" s="0"/>
+      <c r="ADG5" s="0"/>
+      <c r="ADH5" s="0"/>
+      <c r="ADI5" s="0"/>
+      <c r="ADJ5" s="0"/>
+      <c r="ADK5" s="0"/>
+      <c r="ADL5" s="0"/>
+      <c r="ADM5" s="0"/>
+      <c r="ADN5" s="0"/>
+      <c r="ADO5" s="0"/>
+      <c r="ADP5" s="0"/>
+      <c r="ADQ5" s="0"/>
+      <c r="ADR5" s="0"/>
+      <c r="ADS5" s="0"/>
+      <c r="ADT5" s="0"/>
+      <c r="ADU5" s="0"/>
+      <c r="ADV5" s="0"/>
+      <c r="ADW5" s="0"/>
+      <c r="ADX5" s="0"/>
+      <c r="ADY5" s="0"/>
+      <c r="ADZ5" s="0"/>
+      <c r="AEA5" s="0"/>
+      <c r="AEB5" s="0"/>
+      <c r="AEC5" s="0"/>
+      <c r="AED5" s="0"/>
+      <c r="AEE5" s="0"/>
+      <c r="AEF5" s="0"/>
+      <c r="AEG5" s="0"/>
+      <c r="AEH5" s="0"/>
+      <c r="AEI5" s="0"/>
+      <c r="AEJ5" s="0"/>
+      <c r="AEK5" s="0"/>
+      <c r="AEL5" s="0"/>
+      <c r="AEM5" s="0"/>
+      <c r="AEN5" s="0"/>
+      <c r="AEO5" s="0"/>
+      <c r="AEP5" s="0"/>
+      <c r="AEQ5" s="0"/>
+      <c r="AER5" s="0"/>
+      <c r="AES5" s="0"/>
+      <c r="AET5" s="0"/>
+      <c r="AEU5" s="0"/>
+      <c r="AEV5" s="0"/>
+      <c r="AEW5" s="0"/>
+      <c r="AEX5" s="0"/>
+      <c r="AEY5" s="0"/>
+      <c r="AEZ5" s="0"/>
+      <c r="AFA5" s="0"/>
+      <c r="AFB5" s="0"/>
+      <c r="AFC5" s="0"/>
+      <c r="AFD5" s="0"/>
+      <c r="AFE5" s="0"/>
+      <c r="AFF5" s="0"/>
+      <c r="AFG5" s="0"/>
+      <c r="AFH5" s="0"/>
+      <c r="AFI5" s="0"/>
+      <c r="AFJ5" s="0"/>
+      <c r="AFK5" s="0"/>
+      <c r="AFL5" s="0"/>
+      <c r="AFM5" s="0"/>
+      <c r="AFN5" s="0"/>
+      <c r="AFO5" s="0"/>
+      <c r="AFP5" s="0"/>
+      <c r="AFQ5" s="0"/>
+      <c r="AFR5" s="0"/>
+      <c r="AFS5" s="0"/>
+      <c r="AFT5" s="0"/>
+      <c r="AFU5" s="0"/>
+      <c r="AFV5" s="0"/>
+      <c r="AFW5" s="0"/>
+      <c r="AFX5" s="0"/>
+      <c r="AFY5" s="0"/>
+      <c r="AFZ5" s="0"/>
+      <c r="AGA5" s="0"/>
+      <c r="AGB5" s="0"/>
+      <c r="AGC5" s="0"/>
+      <c r="AGD5" s="0"/>
+      <c r="AGE5" s="0"/>
+      <c r="AGF5" s="0"/>
+      <c r="AGG5" s="0"/>
+      <c r="AGH5" s="0"/>
+      <c r="AGI5" s="0"/>
+      <c r="AGJ5" s="0"/>
+      <c r="AGK5" s="0"/>
+      <c r="AGL5" s="0"/>
+      <c r="AGM5" s="0"/>
+      <c r="AGN5" s="0"/>
+      <c r="AGO5" s="0"/>
+      <c r="AGP5" s="0"/>
+      <c r="AGQ5" s="0"/>
+      <c r="AGR5" s="0"/>
+      <c r="AGS5" s="0"/>
+      <c r="AGT5" s="0"/>
+      <c r="AGU5" s="0"/>
+      <c r="AGV5" s="0"/>
+      <c r="AGW5" s="0"/>
+      <c r="AGX5" s="0"/>
+      <c r="AGY5" s="0"/>
+      <c r="AGZ5" s="0"/>
+      <c r="AHA5" s="0"/>
+      <c r="AHB5" s="0"/>
+      <c r="AHC5" s="0"/>
+      <c r="AHD5" s="0"/>
+      <c r="AHE5" s="0"/>
+      <c r="AHF5" s="0"/>
+      <c r="AHG5" s="0"/>
+      <c r="AHH5" s="0"/>
+      <c r="AHI5" s="0"/>
+      <c r="AHJ5" s="0"/>
+      <c r="AHK5" s="0"/>
+      <c r="AHL5" s="0"/>
+      <c r="AHM5" s="0"/>
+      <c r="AHN5" s="0"/>
+      <c r="AHO5" s="0"/>
+      <c r="AHP5" s="0"/>
+      <c r="AHQ5" s="0"/>
+      <c r="AHR5" s="0"/>
+      <c r="AHS5" s="0"/>
+      <c r="AHT5" s="0"/>
+      <c r="AHU5" s="0"/>
+      <c r="AHV5" s="0"/>
+      <c r="AHW5" s="0"/>
+      <c r="AHX5" s="0"/>
+      <c r="AHY5" s="0"/>
+      <c r="AHZ5" s="0"/>
+      <c r="AIA5" s="0"/>
+      <c r="AIB5" s="0"/>
+      <c r="AIC5" s="0"/>
+      <c r="AID5" s="0"/>
+      <c r="AIE5" s="0"/>
+      <c r="AIF5" s="0"/>
+      <c r="AIG5" s="0"/>
+      <c r="AIH5" s="0"/>
+      <c r="AII5" s="0"/>
+      <c r="AIJ5" s="0"/>
+      <c r="AIK5" s="0"/>
+      <c r="AIL5" s="0"/>
+      <c r="AIM5" s="0"/>
+      <c r="AIN5" s="0"/>
+      <c r="AIO5" s="0"/>
+      <c r="AIP5" s="0"/>
+      <c r="AIQ5" s="0"/>
+      <c r="AIR5" s="0"/>
+      <c r="AIS5" s="0"/>
+      <c r="AIT5" s="0"/>
+      <c r="AIU5" s="0"/>
+      <c r="AIV5" s="0"/>
+      <c r="AIW5" s="0"/>
+      <c r="AIX5" s="0"/>
+      <c r="AIY5" s="0"/>
+      <c r="AIZ5" s="0"/>
+      <c r="AJA5" s="0"/>
+      <c r="AJB5" s="0"/>
+      <c r="AJC5" s="0"/>
+      <c r="AJD5" s="0"/>
+      <c r="AJE5" s="0"/>
+      <c r="AJF5" s="0"/>
+      <c r="AJG5" s="0"/>
+      <c r="AJH5" s="0"/>
+      <c r="AJI5" s="0"/>
+      <c r="AJJ5" s="0"/>
+      <c r="AJK5" s="0"/>
+      <c r="AJL5" s="0"/>
+      <c r="AJM5" s="0"/>
+      <c r="AJN5" s="0"/>
+      <c r="AJO5" s="0"/>
+      <c r="AJP5" s="0"/>
+      <c r="AJQ5" s="0"/>
+      <c r="AJR5" s="0"/>
+      <c r="AJS5" s="0"/>
+      <c r="AJT5" s="0"/>
+      <c r="AJU5" s="0"/>
+      <c r="AJV5" s="0"/>
+      <c r="AJW5" s="0"/>
+      <c r="AJX5" s="0"/>
+      <c r="AJY5" s="0"/>
+      <c r="AJZ5" s="0"/>
+      <c r="AKA5" s="0"/>
+      <c r="AKB5" s="0"/>
+      <c r="AKC5" s="0"/>
+      <c r="AKD5" s="0"/>
+      <c r="AKE5" s="0"/>
+      <c r="AKF5" s="0"/>
+      <c r="AKG5" s="0"/>
+      <c r="AKH5" s="0"/>
+      <c r="AKI5" s="0"/>
+      <c r="AKJ5" s="0"/>
+      <c r="AKK5" s="0"/>
+      <c r="AKL5" s="0"/>
+      <c r="AKM5" s="0"/>
+      <c r="AKN5" s="0"/>
+      <c r="AKO5" s="0"/>
+      <c r="AKP5" s="0"/>
+      <c r="AKQ5" s="0"/>
+      <c r="AKR5" s="0"/>
+      <c r="AKS5" s="0"/>
+      <c r="AKT5" s="0"/>
+      <c r="AKU5" s="0"/>
+      <c r="AKV5" s="0"/>
+      <c r="AKW5" s="0"/>
+      <c r="AKX5" s="0"/>
+      <c r="AKY5" s="0"/>
+      <c r="AKZ5" s="0"/>
+      <c r="ALA5" s="0"/>
+      <c r="ALB5" s="0"/>
+      <c r="ALC5" s="0"/>
+      <c r="ALD5" s="0"/>
+      <c r="ALE5" s="0"/>
+      <c r="ALF5" s="0"/>
+      <c r="ALG5" s="0"/>
+      <c r="ALH5" s="0"/>
+      <c r="ALI5" s="0"/>
+      <c r="ALJ5" s="0"/>
+      <c r="ALK5" s="0"/>
+      <c r="ALL5" s="0"/>
+      <c r="ALM5" s="0"/>
+      <c r="ALN5" s="0"/>
+      <c r="ALO5" s="0"/>
+      <c r="ALP5" s="0"/>
+      <c r="ALQ5" s="0"/>
+      <c r="ALR5" s="0"/>
+      <c r="ALS5" s="0"/>
+      <c r="ALT5" s="0"/>
+      <c r="ALU5" s="0"/>
+      <c r="ALV5" s="0"/>
+      <c r="ALW5" s="0"/>
+      <c r="ALX5" s="0"/>
+      <c r="ALY5" s="0"/>
+      <c r="ALZ5" s="0"/>
+      <c r="AMA5" s="0"/>
+      <c r="AMB5" s="0"/>
+      <c r="AMC5" s="0"/>
+      <c r="AMD5" s="0"/>
+      <c r="AME5" s="0"/>
+      <c r="AMF5" s="0"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3988,21 +5617,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:IW4"/>
+  <dimension ref="A1:IW5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4010,42 +5642,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B2" s="7" t="n">
         <f aca="false">TRUE()</f>
@@ -4059,13 +5691,13 @@
         <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>50000</v>
@@ -4077,15 +5709,15 @@
         <v>1</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B3" s="7" t="n">
         <f aca="false">TRUE()</f>
@@ -4099,13 +5731,13 @@
         <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>200001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>200001</v>
@@ -4117,10 +5749,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -4370,7 +6002,7 @@
     </row>
     <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B4" s="7" t="n">
         <f aca="false">TRUE()</f>
@@ -4384,13 +6016,13 @@
         <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>5000000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>5000000</v>
@@ -4402,10 +6034,10 @@
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -4653,6 +6285,291 @@
       <c r="IV4" s="1"/>
       <c r="IW4" s="1"/>
     </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="1"/>
+      <c r="BM5" s="1"/>
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="1"/>
+      <c r="BY5" s="1"/>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="1"/>
+      <c r="CB5" s="1"/>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="1"/>
+      <c r="CE5" s="1"/>
+      <c r="CF5" s="1"/>
+      <c r="CG5" s="1"/>
+      <c r="CH5" s="1"/>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="1"/>
+      <c r="CK5" s="1"/>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="1"/>
+      <c r="CN5" s="1"/>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="1"/>
+      <c r="CQ5" s="1"/>
+      <c r="CR5" s="1"/>
+      <c r="CS5" s="1"/>
+      <c r="CT5" s="1"/>
+      <c r="CU5" s="1"/>
+      <c r="CV5" s="1"/>
+      <c r="CW5" s="1"/>
+      <c r="CX5" s="1"/>
+      <c r="CY5" s="1"/>
+      <c r="CZ5" s="1"/>
+      <c r="DA5" s="1"/>
+      <c r="DB5" s="1"/>
+      <c r="DC5" s="1"/>
+      <c r="DD5" s="1"/>
+      <c r="DE5" s="1"/>
+      <c r="DF5" s="1"/>
+      <c r="DG5" s="1"/>
+      <c r="DH5" s="1"/>
+      <c r="DI5" s="1"/>
+      <c r="DJ5" s="1"/>
+      <c r="DK5" s="1"/>
+      <c r="DL5" s="1"/>
+      <c r="DM5" s="1"/>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
+      <c r="DP5" s="1"/>
+      <c r="DQ5" s="1"/>
+      <c r="DR5" s="1"/>
+      <c r="DS5" s="1"/>
+      <c r="DT5" s="1"/>
+      <c r="DU5" s="1"/>
+      <c r="DV5" s="1"/>
+      <c r="DW5" s="1"/>
+      <c r="DX5" s="1"/>
+      <c r="DY5" s="1"/>
+      <c r="DZ5" s="1"/>
+      <c r="EA5" s="1"/>
+      <c r="EB5" s="1"/>
+      <c r="EC5" s="1"/>
+      <c r="ED5" s="1"/>
+      <c r="EE5" s="1"/>
+      <c r="EF5" s="1"/>
+      <c r="EG5" s="1"/>
+      <c r="EH5" s="1"/>
+      <c r="EI5" s="1"/>
+      <c r="EJ5" s="1"/>
+      <c r="EK5" s="1"/>
+      <c r="EL5" s="1"/>
+      <c r="EM5" s="1"/>
+      <c r="EN5" s="1"/>
+      <c r="EO5" s="1"/>
+      <c r="EP5" s="1"/>
+      <c r="EQ5" s="1"/>
+      <c r="ER5" s="1"/>
+      <c r="ES5" s="1"/>
+      <c r="ET5" s="1"/>
+      <c r="EU5" s="1"/>
+      <c r="EV5" s="1"/>
+      <c r="EW5" s="1"/>
+      <c r="EX5" s="1"/>
+      <c r="EY5" s="1"/>
+      <c r="EZ5" s="1"/>
+      <c r="FA5" s="1"/>
+      <c r="FB5" s="1"/>
+      <c r="FC5" s="1"/>
+      <c r="FD5" s="1"/>
+      <c r="FE5" s="1"/>
+      <c r="FF5" s="1"/>
+      <c r="FG5" s="1"/>
+      <c r="FH5" s="1"/>
+      <c r="FI5" s="1"/>
+      <c r="FJ5" s="1"/>
+      <c r="FK5" s="1"/>
+      <c r="FL5" s="1"/>
+      <c r="FM5" s="1"/>
+      <c r="FN5" s="1"/>
+      <c r="FO5" s="1"/>
+      <c r="FP5" s="1"/>
+      <c r="FQ5" s="1"/>
+      <c r="FR5" s="1"/>
+      <c r="FS5" s="1"/>
+      <c r="FT5" s="1"/>
+      <c r="FU5" s="1"/>
+      <c r="FV5" s="1"/>
+      <c r="FW5" s="1"/>
+      <c r="FX5" s="1"/>
+      <c r="FY5" s="1"/>
+      <c r="FZ5" s="1"/>
+      <c r="GA5" s="1"/>
+      <c r="GB5" s="1"/>
+      <c r="GC5" s="1"/>
+      <c r="GD5" s="1"/>
+      <c r="GE5" s="1"/>
+      <c r="GF5" s="1"/>
+      <c r="GG5" s="1"/>
+      <c r="GH5" s="1"/>
+      <c r="GI5" s="1"/>
+      <c r="GJ5" s="1"/>
+      <c r="GK5" s="1"/>
+      <c r="GL5" s="1"/>
+      <c r="GM5" s="1"/>
+      <c r="GN5" s="1"/>
+      <c r="GO5" s="1"/>
+      <c r="GP5" s="1"/>
+      <c r="GQ5" s="1"/>
+      <c r="GR5" s="1"/>
+      <c r="GS5" s="1"/>
+      <c r="GT5" s="1"/>
+      <c r="GU5" s="1"/>
+      <c r="GV5" s="1"/>
+      <c r="GW5" s="1"/>
+      <c r="GX5" s="1"/>
+      <c r="GY5" s="1"/>
+      <c r="GZ5" s="1"/>
+      <c r="HA5" s="1"/>
+      <c r="HB5" s="1"/>
+      <c r="HC5" s="1"/>
+      <c r="HD5" s="1"/>
+      <c r="HE5" s="1"/>
+      <c r="HF5" s="1"/>
+      <c r="HG5" s="1"/>
+      <c r="HH5" s="1"/>
+      <c r="HI5" s="1"/>
+      <c r="HJ5" s="1"/>
+      <c r="HK5" s="1"/>
+      <c r="HL5" s="1"/>
+      <c r="HM5" s="1"/>
+      <c r="HN5" s="1"/>
+      <c r="HO5" s="1"/>
+      <c r="HP5" s="1"/>
+      <c r="HQ5" s="1"/>
+      <c r="HR5" s="1"/>
+      <c r="HS5" s="1"/>
+      <c r="HT5" s="1"/>
+      <c r="HU5" s="1"/>
+      <c r="HV5" s="1"/>
+      <c r="HW5" s="1"/>
+      <c r="HX5" s="1"/>
+      <c r="HY5" s="1"/>
+      <c r="HZ5" s="1"/>
+      <c r="IA5" s="1"/>
+      <c r="IB5" s="1"/>
+      <c r="IC5" s="1"/>
+      <c r="ID5" s="1"/>
+      <c r="IE5" s="1"/>
+      <c r="IF5" s="1"/>
+      <c r="IG5" s="1"/>
+      <c r="IH5" s="1"/>
+      <c r="II5" s="1"/>
+      <c r="IJ5" s="1"/>
+      <c r="IK5" s="1"/>
+      <c r="IL5" s="1"/>
+      <c r="IM5" s="1"/>
+      <c r="IN5" s="1"/>
+      <c r="IO5" s="1"/>
+      <c r="IP5" s="1"/>
+      <c r="IQ5" s="1"/>
+      <c r="IR5" s="1"/>
+      <c r="IS5" s="1"/>
+      <c r="IT5" s="1"/>
+      <c r="IU5" s="1"/>
+      <c r="IV5" s="1"/>
+      <c r="IW5" s="1"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4677,8 +6594,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.5102040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4686,27 +6605,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>42724</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4733,11 +6652,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4948979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,27 +6664,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C2" s="9" t="n">
         <v>42724</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
   <si>
     <t xml:space="preserve">dataName</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t xml:space="preserve">C.Naresh/ENG_Assistant Engineer_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeputyExecutiveEngineer_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.Radha Krishna/ENG_Dy. Executive Engineer_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive_engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G.Raja Sekhar/ENG_Executive Engineer_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forward to executive engineer</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -398,11 +416,12 @@
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="168" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -420,12 +439,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -437,11 +450,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -499,49 +507,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -549,7 +521,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,7 +553,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,20 +579,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.9795918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="39.734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.7448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -688,7 +684,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="true" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="38.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -698,11 +694,45 @@
       <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="true" ht="34.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -729,19 +759,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.719387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="13.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.9897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.1938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.5663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="23.234693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.6071428571429"/>
-    <col collapsed="false" hidden="false" max="254" min="12" style="1" width="6.47959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="254" min="12" style="1" width="6.20918367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,209 +778,209 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7" t="n">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="n">
         <v>48</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>44</v>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>42</v>
+        <v>67</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>42</v>
+      <c r="H5" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="9" t="n">
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="n">
         <v>42887</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>42</v>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -978,12 +1007,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.2857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.6581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="32.0204081632653"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="7.29081632653061"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,83 +1020,83 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1094,17 +1123,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="254" style="0" width="11.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1112,53 +1140,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="12" t="n">
+        <v>100</v>
+      </c>
+      <c r="B2" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="n">
+      <c r="C2" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>50000</v>
@@ -1169,27 +1197,27 @@
     </row>
     <row r="3" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="12" t="n">
+        <v>103</v>
+      </c>
+      <c r="B3" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>200001</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>200001</v>
@@ -1200,27 +1228,27 @@
     </row>
     <row r="4" s="1" customFormat="true" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="12" t="n">
+        <v>107</v>
+      </c>
+      <c r="B4" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="9" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>5000000</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>5000000</v>
@@ -1231,64 +1259,64 @@
     </row>
     <row r="5" s="1" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="12" t="n">
+        <v>111</v>
+      </c>
+      <c r="B5" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C5" s="12" t="n">
+      <c r="C5" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>10000000</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="12" t="n">
+        <v>114</v>
+      </c>
+      <c r="B6" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="9" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>10000001</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1315,10 +1343,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2142857142857"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1326,27 +1352,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="14" t="n">
+        <v>119</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>42887</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1373,35 +1399,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>115</v>
+      <c r="B1" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="14" t="n">
+        <v>125</v>
+      </c>
+      <c r="C2" s="11" t="n">
         <v>42887</v>
       </c>
       <c r="D2" s="0" t="s">

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Superintendent</t>
   </si>
   <si>
-    <t xml:space="preserve">K.Mohammed Juneed/ACC_Superintendent_2</t>
+    <t xml:space="preserve">Mohammed Juneed/ACC_Superintendent_2</t>
   </si>
   <si>
     <t xml:space="preserve">Forward to Accounts</t>
@@ -582,17 +582,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.7448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.2040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.1836734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -759,18 +758,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="254" min="12" style="1" width="6.20918367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="254" min="12" style="1" width="6.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,12 +1007,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="31.1836734693878"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="7.1530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,16 +1123,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9948979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="254" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,8 +1344,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,11 +1402,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0051020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -81,7 +81,7 @@
     <t xml:space="preserve">Commissioner</t>
   </si>
   <si>
-    <t xml:space="preserve">S.Ravindra Babu/ADM_Commissioner_1</t>
+    <t xml:space="preserve">Ravindra Babu/ADM_Commissioner_1</t>
   </si>
   <si>
     <t xml:space="preserve">Forward to commissioner</t>
@@ -582,16 +582,16 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.6989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -758,17 +758,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="25.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.1326530612245"/>
     <col collapsed="false" hidden="false" max="254" min="12" style="1" width="6.0765306122449"/>
     <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="8.50510204081633"/>
   </cols>
@@ -1007,12 +1007,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="30.780612244898"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="7.1530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="7.1530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="6.61224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,16 +1123,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="7.4234693877551"/>
     <col collapsed="false" hidden="false" max="1025" min="254" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -1345,8 +1345,8 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.3010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.4591836734694"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -1402,10 +1402,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7908163265306"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
+++ b/egov/egov_functional_test/src/test/resources/lineEstimateTestData.xlsx
@@ -81,7 +81,7 @@
     <t xml:space="preserve">Commissioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Ravindra Babu/ADM_Commissioner_1</t>
+    <t xml:space="preserve">Ravindra Babu/ADM_Commissioner_2</t>
   </si>
   <si>
     <t xml:space="preserve">Forward to commissioner</t>
@@ -587,11 +587,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -758,19 +759,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.7295918367347"/>
     <col collapsed="false" hidden="false" max="254" min="12" style="1" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="255" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,12 +1008,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="257" min="5" style="1" width="6.47959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1123,17 +1123,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="254" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="253" min="10" style="0" width="7.29081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="254" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1344,10 +1344,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="23.8928571428571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1402,10 +1402,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.25"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
